--- a/data/source/ontologies_source.xlsx
+++ b/data/source/ontologies_source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac.sharepoint.com/sites/EC3-1.ModellingandStandards/Shared Documents/1. Modelling and Standards/Material/Project D_Ontologies/Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{2E8F1CF9-84F5-450E-A553-0948EFFDB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6924AFBB-E5CE-4C43-B9D9-C365AFF1BDC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78009DC6-A26F-4D80-9B40-E01F4213373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -3824,10 +3824,10 @@
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4805,7 +4805,7 @@
         <v>94</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>763</v>
@@ -12447,12 +12447,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12660,19 +12661,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12696,11 +12698,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/source/ontologies_source.xlsx
+++ b/data/source/ontologies_source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac.sharepoint.com/sites/EC3-1.ModellingandStandards/Shared Documents/1. Modelling and Standards/Material/Project D_Ontologies/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78009DC6-A26F-4D80-9B40-E01F4213373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{2E8F1CF9-84F5-450E-A553-0948EFFDB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BBA15A-72F7-4C11-BD2A-E142128454CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="5025" yWindow="3120" windowWidth="17970" windowHeight="11295" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S92" authorId="9" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+    <comment ref="S91" authorId="9" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E95" authorId="10" shapeId="0" xr:uid="{FF38AB15-F518-4A75-8FD0-5D30FB36F963}">
+    <comment ref="E94" authorId="10" shapeId="0" xr:uid="{FF38AB15-F518-4A75-8FD0-5D30FB36F963}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="11" shapeId="0" xr:uid="{C1789974-873D-4FE1-B73F-043CBD4ED103}">
+    <comment ref="E95" authorId="11" shapeId="0" xr:uid="{C1789974-873D-4FE1-B73F-043CBD4ED103}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E135" authorId="14" shapeId="0" xr:uid="{CAD6BC40-6B67-4E9E-AB3E-DA05BF8F7896}">
+    <comment ref="E134" authorId="14" shapeId="0" xr:uid="{CAD6BC40-6B67-4E9E-AB3E-DA05BF8F7896}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="15" shapeId="0" xr:uid="{3EE948F8-4E0F-4FD4-8BC9-EA54C6408FF1}">
+    <comment ref="E137" authorId="15" shapeId="0" xr:uid="{3EE948F8-4E0F-4FD4-8BC9-EA54C6408FF1}">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="920">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -847,9 +847,6 @@
     <t>Digital Building Ontology</t>
   </si>
   <si>
-    <t>dbo</t>
-  </si>
-  <si>
     <t>Apache-2.0</t>
   </si>
   <si>
@@ -1964,9 +1961,6 @@
     <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
   </si>
   <si>
-    <t>th-sharedvocab</t>
-  </si>
-  <si>
     <t>Energy and Resource Information</t>
   </si>
   <si>
@@ -2186,39 +2180,21 @@
     <t>https://github.com/duyguutkucu/HBPO; https://doi.org/10.1016/j.autcon.2025.106197</t>
   </si>
   <si>
-    <t>sml-term</t>
-  </si>
-  <si>
     <t>sml</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/sml/def# </t>
   </si>
   <si>
-    <t>https://w3id.org/sml/term#</t>
-  </si>
-  <si>
-    <t>Defines the terms from CEN-EN 17632</t>
-  </si>
-  <si>
     <t>Defines: 1) RDFS classes and properties related to SKOS terms; 2) OWL class and property types for the definitions in the RDFS file; 3) SHACL shapes for the classes and properties in the RDFS file.</t>
   </si>
   <si>
-    <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C    https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
-  </si>
-  <si>
     <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C   https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
   </si>
   <si>
-    <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative terminology (SKOS)</t>
-  </si>
-  <si>
     <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative classes and properties (RDFS, OWL, and SHACL)</t>
   </si>
   <si>
-    <t>CEN EN 17632-1:2022, CEN EN 17632-2:2024</t>
-  </si>
-  <si>
     <t>CEN EN 17632-1:2022, CEN EN 17632-2:2025</t>
   </si>
   <si>
@@ -2228,21 +2204,12 @@
     <t>EN 17632-1:2022 / EN 17632-2:2024</t>
   </si>
   <si>
-    <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative terminology (SKOS)</t>
-  </si>
-  <si>
     <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative classes and properties (RDFS, OWL, and SHACL)</t>
   </si>
   <si>
     <t>nen2660</t>
   </si>
   <si>
-    <t xml:space="preserve">nen2660-term </t>
-  </si>
-  <si>
-    <t>https://w3id.org/nen2660/term#</t>
-  </si>
-  <si>
     <t>https://w3id.org/nen2660/def#</t>
   </si>
   <si>
@@ -2258,9 +2225,6 @@
     <t>The NEN 2660 ontologies provide a standardized framework for information modeling in the built environment, aligning with the NEN 2660-2:2022 standard. Defines the core classes and properties for modeling entities, activities, and their relationships within the built environment, utilizing RDFS, OWL, and SHACL.</t>
   </si>
   <si>
-    <t>The NEN 2660 ontologies provide a standardized framework for information modeling in the built environment, aligning with the NEN 2660-2:2022 standard. SKOS-based vocabulary defines standardized terms and concepts used in the NEN 2660.</t>
-  </si>
-  <si>
     <t>NEN 2660-2:2022</t>
   </si>
   <si>
@@ -2300,9 +2264,6 @@
     <t>Buildling Ontology Shared Vocabulary</t>
   </si>
   <si>
-    <t>th-sharedvocabulary</t>
-  </si>
-  <si>
     <t>Shared vocabulary for th-building</t>
   </si>
   <si>
@@ -2682,9 +2643,6 @@
   </si>
   <si>
     <t>qudt, schema, skos, dcterms, vann, prov, foaf</t>
-  </si>
-  <si>
-    <t>dcterms, vann, voaf, vs, dce, dbo</t>
   </si>
   <si>
     <t>dcterms, vann, schema, foaf</t>
@@ -3136,6 +3094,67 @@
   </si>
   <si>
     <t>linked_by_aeco</t>
+  </si>
+  <si>
+    <t>Project Haystack</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>https://project-haystack.org/def/ph/4.0.0#</t>
+  </si>
+  <si>
+    <t>https://www.project-haystack.org/</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>Academic Free License 3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We standardize semantic data models and web services with the goal of making it easier to unlock value from the vast quantity of data being generated by the smart devices that permeate our homes, buildings, factories, and cities.
+Applications include automation, control, energy, HVAC, lighting, and other environmental systems.</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>dcterms, vann, voaf, vs, dce, db</t>
+  </si>
+  <si>
+    <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/ActorOntology.owl#</t>
+  </si>
+  <si>
+    <t>th-sharedvoc</t>
+  </si>
+  <si>
+    <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/EnergyResourceOntology.owl#</t>
+  </si>
+  <si>
+    <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl#</t>
+  </si>
+  <si>
+    <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/ProcessOntology.owl#</t>
+  </si>
+  <si>
+    <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/WeatherOntology.owl#</t>
+  </si>
+  <si>
+    <t>time, timezone</t>
+  </si>
+  <si>
+    <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntologySharedVocabulary.owl</t>
+  </si>
+  <si>
+    <t>time, timezone, swrl, swrlb, owlapi</t>
+  </si>
+  <si>
+    <t>swrl, swrlb</t>
+  </si>
+  <si>
+    <t>gis4reno</t>
   </si>
 </sst>
 </file>
@@ -3199,7 +3218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3232,12 +3251,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3262,7 +3275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3284,7 +3297,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3299,7 +3311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3316,13 +3328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -3330,6 +3342,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3405,10 +3419,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:T145" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:T145" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T145">
-    <sortCondition ref="B1:B145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:T144" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:T144" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T144">
+    <sortCondition ref="B1:B144"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="title"/>
@@ -3821,13 +3835,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,82 +3865,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>737</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>736</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>738</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>739</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>912</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>740</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>741</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>743</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>825</v>
-      </c>
-      <c r="R1" s="33" t="s">
+      <c r="E1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>899</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>824</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>913</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="D2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3944,13 +3958,13 @@
         <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>29</v>
@@ -3970,19 +3984,19 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -3990,8 +4004,8 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>258</v>
+      <c r="I3" s="34" t="s">
+        <v>257</v>
       </c>
       <c r="J3">
         <v>2025</v>
@@ -4000,13 +4014,13 @@
         <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>29</v>
@@ -4090,14 +4104,14 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>752</v>
+      <c r="C5" s="24" t="s">
+        <v>739</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4121,7 +4135,7 @@
         <v>37</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>29</v>
@@ -4144,10 +4158,10 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -4180,7 +4194,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>29</v>
@@ -4239,7 +4253,7 @@
         <v>39</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -4265,7 +4279,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -4351,7 +4365,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>29</v>
@@ -4410,7 +4424,7 @@
         <v>39</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>29</v>
@@ -4439,7 +4453,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
@@ -4466,10 +4480,10 @@
         <v>67</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>29</v>
@@ -4489,19 +4503,19 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -4516,13 +4530,13 @@
         <v>39</v>
       </c>
       <c r="L12" t="s">
+        <v>570</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>575</v>
+      <c r="N12" s="15" t="s">
+        <v>573</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>29</v>
@@ -4690,7 +4704,7 @@
         <v>39</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>29</v>
@@ -4752,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>29</v>
@@ -4805,10 +4819,10 @@
         <v>94</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>763</v>
+        <v>908</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>29</v>
@@ -4834,7 +4848,7 @@
         <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
@@ -4883,7 +4897,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B19" t="s">
@@ -4919,7 +4933,7 @@
       <c r="L19" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>109</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -4982,7 +4996,7 @@
         <v>39</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>31</v>
@@ -5120,13 +5134,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B23" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -5147,13 +5161,13 @@
         <v>145</v>
       </c>
       <c r="L23" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>29</v>
@@ -5291,25 +5305,25 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="B26" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="D26" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I26" s="13">
         <v>0.2</v>
@@ -5321,15 +5335,15 @@
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="O26" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="O26" s="18" t="s">
         <v>29</v>
       </c>
       <c r="P26" s="7" t="s">
@@ -5347,10 +5361,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B27" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -5359,7 +5373,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -5377,13 +5391,13 @@
         <v>39</v>
       </c>
       <c r="L27" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>29</v>
@@ -5439,7 +5453,7 @@
         <v>142</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>30</v>
@@ -5459,19 +5473,19 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B29" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="D29" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
@@ -5489,15 +5503,15 @@
         <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="O29" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="O29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="P29" s="7" t="s">
@@ -5515,19 +5529,19 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B30" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
@@ -5545,15 +5559,15 @@
         <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="O30" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="O30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="P30" s="7" t="s">
@@ -5577,7 +5591,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="D31" t="s">
         <v>134</v>
@@ -5624,19 +5638,19 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B32" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -5654,13 +5668,13 @@
         <v>145</v>
       </c>
       <c r="L32" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>29</v>
@@ -5683,7 +5697,7 @@
         <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>907</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -5692,7 +5706,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -5710,16 +5724,16 @@
         <v>2024</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>29</v>
@@ -5731,27 +5745,27 @@
         <v>29</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
         <v>156</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F34" t="s">
         <v>39</v>
@@ -5769,13 +5783,13 @@
         <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="M34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>29</v>
@@ -5795,19 +5809,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
         <v>162</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
@@ -5825,10 +5839,10 @@
         <v>145</v>
       </c>
       <c r="L35" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>29</v>
@@ -5848,22 +5862,22 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
         <v>166</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
         <v>167</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" t="s">
-        <v>168</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -5878,13 +5892,13 @@
         <v>145</v>
       </c>
       <c r="L36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>29</v>
@@ -5904,19 +5918,19 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" t="s">
         <v>172</v>
       </c>
-      <c r="B37" t="s">
-        <v>173</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
@@ -5934,13 +5948,13 @@
         <v>145</v>
       </c>
       <c r="L37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>29</v>
@@ -5960,19 +5974,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" t="s">
         <v>177</v>
       </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
         <v>39</v>
@@ -5990,13 +6004,13 @@
         <v>145</v>
       </c>
       <c r="L38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>29</v>
@@ -6016,22 +6030,22 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
         <v>182</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" t="s">
         <v>183</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" t="s">
-        <v>184</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -6046,13 +6060,13 @@
         <v>145</v>
       </c>
       <c r="L39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>29</v>
@@ -6072,16 +6086,16 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>734</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B40" t="s">
-        <v>747</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" t="s">
@@ -6097,13 +6111,13 @@
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>29</v>
@@ -6123,19 +6137,19 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
         <v>187</v>
       </c>
-      <c r="B41" t="s">
-        <v>188</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -6153,13 +6167,13 @@
         <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>29</v>
@@ -6179,19 +6193,19 @@
     </row>
     <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" t="s">
         <v>192</v>
       </c>
-      <c r="B42" t="s">
-        <v>193</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
         <v>39</v>
@@ -6212,13 +6226,13 @@
         <v>145</v>
       </c>
       <c r="L42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>29</v>
@@ -6238,19 +6252,19 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" t="s">
         <v>197</v>
       </c>
-      <c r="B43" t="s">
-        <v>198</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
         <v>39</v>
@@ -6268,13 +6282,13 @@
         <v>145</v>
       </c>
       <c r="L43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>29</v>
@@ -6294,16 +6308,16 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
         <v>202</v>
       </c>
-      <c r="B44" t="s">
-        <v>203</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
@@ -6316,7 +6330,7 @@
         <v>39</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>29</v>
@@ -6336,16 +6350,16 @@
     </row>
     <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
         <v>204</v>
       </c>
-      <c r="B45" t="s">
-        <v>205</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
@@ -6355,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J45">
         <v>2019</v>
@@ -6367,7 +6381,7 @@
         <v>39</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>29</v>
@@ -6387,19 +6401,19 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
         <v>206</v>
       </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -6417,13 +6431,13 @@
         <v>145</v>
       </c>
       <c r="L46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>29</v>
@@ -6443,19 +6457,19 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
         <v>210</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -6502,10 +6516,10 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B48" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -6514,7 +6528,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -6535,7 +6549,7 @@
         <v>39</v>
       </c>
       <c r="L48" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>39</v>
@@ -6561,19 +6575,19 @@
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
         <v>213</v>
       </c>
-      <c r="B49" t="s">
-        <v>214</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -6582,19 +6596,19 @@
         <v>10</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J49">
         <v>2019</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>29</v>
@@ -6614,22 +6628,22 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
         <v>218</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" t="s">
         <v>219</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" t="s">
-        <v>220</v>
       </c>
       <c r="G50" t="s">
         <v>2</v>
@@ -6647,10 +6661,10 @@
         <v>23</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>29</v>
@@ -6670,19 +6684,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -6703,13 +6717,13 @@
         <v>35</v>
       </c>
       <c r="L51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>29</v>
@@ -6729,19 +6743,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
         <v>229</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -6765,10 +6779,10 @@
         <v>125</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>29</v>
@@ -6788,13 +6802,13 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s">
         <v>239</v>
       </c>
-      <c r="B53" t="s">
-        <v>240</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
         <v>39</v>
@@ -6818,13 +6832,13 @@
         <v>23</v>
       </c>
       <c r="L53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>29</v>
@@ -6844,40 +6858,40 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="B54" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="D54" t="s">
         <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="G54" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J54">
         <v>2025</v>
       </c>
       <c r="K54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L54" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>29</v>
@@ -6896,20 +6910,20 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" t="s">
         <v>244</v>
       </c>
-      <c r="B55" t="s">
-        <v>245</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="D55" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -6924,16 +6938,16 @@
         <v>2021</v>
       </c>
       <c r="K55" t="s">
+        <v>245</v>
+      </c>
+      <c r="L55" t="s">
         <v>246</v>
       </c>
-      <c r="L55" t="s">
-        <v>247</v>
-      </c>
       <c r="M55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="16" t="s">
-        <v>249</v>
+      <c r="N55" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>29</v>
@@ -6953,19 +6967,19 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s">
         <v>250</v>
       </c>
-      <c r="B56" t="s">
-        <v>251</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D56" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -6974,22 +6988,22 @@
         <v>11</v>
       </c>
       <c r="I56" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="J56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" t="s">
         <v>252</v>
       </c>
-      <c r="J56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>253</v>
       </c>
-      <c r="L56" t="s">
-        <v>254</v>
-      </c>
       <c r="M56" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>29</v>
@@ -7009,19 +7023,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
         <v>256</v>
       </c>
-      <c r="B57" t="s">
-        <v>257</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D57" t="s">
         <v>39</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -7030,10 +7044,10 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J57">
         <v>2019</v>
@@ -7042,13 +7056,13 @@
         <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>29</v>
@@ -7068,11 +7082,11 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="C58" t="s">
         <v>39</v>
       </c>
@@ -7080,10 +7094,10 @@
         <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -7095,16 +7109,16 @@
         <v>2006</v>
       </c>
       <c r="K58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>29</v>
@@ -7124,19 +7138,19 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" t="s">
         <v>269</v>
       </c>
-      <c r="B59" t="s">
-        <v>270</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -7145,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J59">
         <v>2022</v>
@@ -7154,13 +7168,13 @@
         <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>29</v>
@@ -7180,19 +7194,19 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
         <v>276</v>
       </c>
-      <c r="B60" t="s">
-        <v>277</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="D60" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -7201,22 +7215,22 @@
         <v>6</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J60">
         <v>2022</v>
       </c>
       <c r="K60" t="s">
+        <v>278</v>
+      </c>
+      <c r="L60" t="s">
         <v>279</v>
       </c>
-      <c r="L60" t="s">
-        <v>280</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>29</v>
@@ -7235,77 +7249,77 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>860</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="25" t="s">
-        <v>734</v>
+      <c r="A61" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="24" t="s">
+        <v>721</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H61" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="24" t="s">
-        <v>732</v>
-      </c>
-      <c r="J61" s="23">
+      <c r="I61" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="J61" s="22">
         <v>2010</v>
       </c>
-      <c r="K61" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>733</v>
-      </c>
-      <c r="M61" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N61" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="O61" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S61" s="26" t="s">
+      <c r="K61" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="O61" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" t="s">
         <v>282</v>
       </c>
-      <c r="B62" t="s">
-        <v>283</v>
-      </c>
       <c r="C62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -7323,13 +7337,13 @@
         <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>29</v>
@@ -7349,19 +7363,19 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>549</v>
-      </c>
-      <c r="B63" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -7382,13 +7396,13 @@
         <v>23</v>
       </c>
       <c r="L63" t="s">
+        <v>549</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="N63" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>553</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>30</v>
@@ -7408,27 +7422,27 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="B64" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="D64" t="s">
         <v>39</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="G64" t="s">
         <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>680</v>
-      </c>
-      <c r="I64" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="I64" s="34" t="s">
         <v>81</v>
       </c>
       <c r="J64">
@@ -7438,13 +7452,13 @@
         <v>35</v>
       </c>
       <c r="L64" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>29</v>
@@ -7464,19 +7478,19 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s">
         <v>287</v>
       </c>
-      <c r="B65" t="s">
-        <v>288</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F65" t="s">
         <v>39</v>
@@ -7485,7 +7499,7 @@
         <v>8</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J65">
         <v>2020</v>
@@ -7494,13 +7508,13 @@
         <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>29</v>
@@ -7520,19 +7534,19 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B66" t="s">
+        <v>733</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B66" t="s">
-        <v>746</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="F66" t="s">
         <v>39</v>
@@ -7553,13 +7567,13 @@
         <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>29</v>
@@ -7579,10 +7593,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B67" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -7591,7 +7605,7 @@
         <v>39</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F67" t="s">
         <v>39</v>
@@ -7612,7 +7626,7 @@
         <v>39</v>
       </c>
       <c r="L67" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>39</v>
@@ -7638,10 +7652,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B68" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -7650,7 +7664,7 @@
         <v>39</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F68" t="s">
         <v>39</v>
@@ -7671,7 +7685,7 @@
         <v>39</v>
       </c>
       <c r="L68" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>39</v>
@@ -7697,22 +7711,22 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="B69" t="s">
-        <v>745</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>894</v>
+        <v>732</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>880</v>
       </c>
       <c r="D69" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="F69" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G69" t="s">
         <v>7</v>
@@ -7724,9 +7738,9 @@
         <v>2023</v>
       </c>
       <c r="K69" t="s">
-        <v>653</v>
-      </c>
-      <c r="N69" s="16"/>
+        <v>640</v>
+      </c>
+      <c r="N69" s="15"/>
       <c r="O69" s="7" t="s">
         <v>30</v>
       </c>
@@ -7745,10 +7759,10 @@
     </row>
     <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B70" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>39</v>
@@ -7757,7 +7771,7 @@
         <v>39</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F70" t="s">
         <v>39</v>
@@ -7775,19 +7789,19 @@
         <v>39</v>
       </c>
       <c r="L70" t="s">
+        <v>590</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="N70" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="O70" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q70" s="7" t="s">
         <v>29</v>
@@ -7801,19 +7815,19 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="B71" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D71" t="s">
         <v>39</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G71" t="s">
         <v>0</v>
@@ -7821,7 +7835,7 @@
       <c r="H71" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="35" t="s">
+      <c r="I71" s="34" t="s">
         <v>81</v>
       </c>
       <c r="J71">
@@ -7831,13 +7845,13 @@
         <v>35</v>
       </c>
       <c r="L71" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>29</v>
@@ -7857,22 +7871,22 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" t="s">
         <v>293</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F72" t="s">
         <v>294</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F72" t="s">
-        <v>295</v>
       </c>
       <c r="G72" t="s">
         <v>1</v>
@@ -7890,13 +7904,13 @@
         <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>30</v>
@@ -7919,22 +7933,22 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" t="s">
         <v>299</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" t="s">
         <v>300</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F73" t="s">
-        <v>301</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
@@ -7949,10 +7963,10 @@
         <v>23</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>29</v>
@@ -7972,19 +7986,19 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="D74" t="s">
         <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
         <v>39</v>
@@ -8002,16 +8016,16 @@
         <v>2019</v>
       </c>
       <c r="K74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O74" s="7" t="s">
         <v>29</v>
@@ -8028,23 +8042,23 @@
       <c r="S74" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T74" s="36"/>
+      <c r="T74" s="35"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" t="s">
         <v>308</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D75" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="F75" t="s">
         <v>39</v>
@@ -8065,7 +8079,7 @@
         <v>39</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>29</v>
@@ -8085,13 +8099,13 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" t="s">
         <v>311</v>
       </c>
-      <c r="B76" t="s">
-        <v>312</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D76" t="s">
         <v>32</v>
@@ -8106,7 +8120,7 @@
         <v>9</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J76">
         <v>2020</v>
@@ -8115,13 +8129,13 @@
         <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>29</v>
@@ -8144,19 +8158,19 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -8171,16 +8185,16 @@
         <v>2024</v>
       </c>
       <c r="K77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>29</v>
@@ -8200,19 +8214,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" t="s">
         <v>320</v>
       </c>
-      <c r="B78" t="s">
-        <v>321</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D78" t="s">
         <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -8221,7 +8235,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J78">
         <v>2022</v>
@@ -8230,13 +8244,13 @@
         <v>23</v>
       </c>
       <c r="L78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="O78" s="7" t="s">
         <v>29</v>
@@ -8256,13 +8270,13 @@
     </row>
     <row r="79" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" t="s">
         <v>326</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
@@ -8277,10 +8291,10 @@
         <v>39</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>29</v>
@@ -8300,19 +8314,19 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F80" t="s">
         <v>39</v>
@@ -8327,23 +8341,23 @@
         <v>2016</v>
       </c>
       <c r="K80" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="L80" t="s">
-        <v>640</v>
-      </c>
-      <c r="N80" s="16"/>
+        <v>627</v>
+      </c>
+      <c r="N80" s="15"/>
       <c r="S80" s="14"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" t="s">
         <v>330</v>
       </c>
-      <c r="B81" t="s">
-        <v>331</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D81" t="s">
         <v>32</v>
@@ -8367,13 +8381,13 @@
         <v>23</v>
       </c>
       <c r="L81" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>29</v>
@@ -8393,10 +8407,10 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
         <v>335</v>
-      </c>
-      <c r="B82" t="s">
-        <v>336</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -8414,7 +8428,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I82" s="13">
         <v>1.1000000000000001</v>
@@ -8426,13 +8440,13 @@
         <v>61</v>
       </c>
       <c r="L82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="O82" s="7" t="s">
         <v>30</v>
@@ -8452,22 +8466,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F83" t="s">
         <v>339</v>
-      </c>
-      <c r="B83" t="s">
-        <v>237</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F83" t="s">
-        <v>340</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
@@ -8485,7 +8499,7 @@
         <v>39</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>29</v>
@@ -8505,13 +8519,13 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" t="s">
         <v>343</v>
       </c>
-      <c r="B84" t="s">
-        <v>344</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" t="s">
         <v>32</v>
@@ -8535,13 +8549,13 @@
         <v>23</v>
       </c>
       <c r="L84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M84" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N84" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>29</v>
@@ -8561,19 +8575,19 @@
     </row>
     <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" t="s">
         <v>349</v>
       </c>
-      <c r="B85" t="s">
-        <v>350</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D85" t="s">
         <v>39</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F85" t="s">
         <v>39</v>
@@ -8588,16 +8602,16 @@
         <v>2019</v>
       </c>
       <c r="K85" t="s">
+        <v>350</v>
+      </c>
+      <c r="L85" t="s">
         <v>351</v>
       </c>
-      <c r="L85" t="s">
-        <v>352</v>
-      </c>
       <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>29</v>
@@ -8615,15 +8629,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" t="s">
         <v>354</v>
       </c>
-      <c r="B86" t="s">
-        <v>355</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D86" t="s">
         <v>39</v>
@@ -8648,13 +8662,13 @@
         <v>35</v>
       </c>
       <c r="L86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="O86" s="7" t="s">
         <v>29</v>
@@ -8675,11 +8689,11 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" t="s">
         <v>358</v>
       </c>
-      <c r="B87" t="s">
-        <v>359</v>
-      </c>
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -8687,7 +8701,7 @@
         <v>39</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F87" t="s">
         <v>39</v>
@@ -8702,16 +8716,16 @@
         <v>2024</v>
       </c>
       <c r="K87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M87" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>29</v>
@@ -8731,22 +8745,22 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B88" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D88" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F88" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
@@ -8764,13 +8778,13 @@
         <v>39</v>
       </c>
       <c r="L88" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="O88" s="7" t="s">
         <v>29</v>
@@ -8788,33 +8802,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>611</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s">
-        <v>614</v>
+        <v>364</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>615</v>
+        <v>365</v>
       </c>
       <c r="D89" t="s">
-        <v>622</v>
+        <v>39</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>617</v>
+        <v>366</v>
       </c>
       <c r="F89" t="s">
-        <v>618</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0.3</v>
       </c>
       <c r="J89">
         <v>2022</v>
@@ -8822,14 +8833,11 @@
       <c r="K89" t="s">
         <v>39</v>
       </c>
-      <c r="L89" t="s">
-        <v>621</v>
-      </c>
       <c r="M89" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>619</v>
+        <v>783</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>29</v>
@@ -8844,45 +8852,48 @@
         <v>29</v>
       </c>
       <c r="S89" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>364</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>584</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>366</v>
+        <v>586</v>
       </c>
       <c r="D90" t="s">
         <v>39</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>367</v>
+        <v>587</v>
       </c>
       <c r="F90" t="s">
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I90" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>2022</v>
       </c>
       <c r="K90" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="L90" t="s">
+        <v>585</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>90</v>
+        <v>588</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="O90" s="7" t="s">
         <v>29</v>
@@ -8897,30 +8908,30 @@
         <v>29</v>
       </c>
       <c r="S90" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>585</v>
+      <c r="A91" t="s">
+        <v>367</v>
       </c>
       <c r="B91" t="s">
-        <v>586</v>
+        <v>368</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>588</v>
+        <v>370</v>
       </c>
       <c r="D91" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>589</v>
+        <v>371</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I91" s="13">
         <v>1</v>
@@ -8929,16 +8940,16 @@
         <v>2022</v>
       </c>
       <c r="K91" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L91" t="s">
-        <v>587</v>
+        <v>369</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>590</v>
+        <v>39</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="O91" s="7" t="s">
         <v>29</v>
@@ -8958,43 +8969,43 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>371</v>
+        <v>876</v>
       </c>
       <c r="D92" t="s">
         <v>39</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J92">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="K92" t="s">
         <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="O92" s="7" t="s">
         <v>29</v>
@@ -9014,43 +9025,43 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>890</v>
+        <v>377</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
       </c>
       <c r="D93" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>379</v>
       </c>
       <c r="G93" t="s">
-        <v>0</v>
-      </c>
-      <c r="I93" s="13">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="J93">
         <v>2019</v>
       </c>
       <c r="K93" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L93" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>376</v>
+        <v>39</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>800</v>
+        <v>39</v>
       </c>
       <c r="O93" s="7" t="s">
         <v>29</v>
@@ -9059,21 +9070,21 @@
         <v>29</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R93" s="7" t="s">
         <v>29</v>
       </c>
       <c r="S93" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
@@ -9082,25 +9093,25 @@
         <v>39</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F94" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="J94">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K94" t="s">
         <v>39</v>
       </c>
       <c r="L94" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>39</v>
@@ -9112,24 +9123,24 @@
         <v>29</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q94" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S94" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B95" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C95" t="s">
         <v>39</v>
@@ -9138,143 +9149,143 @@
         <v>39</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F95" t="s">
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>7</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>385</v>
+        <v>12</v>
+      </c>
+      <c r="I95" s="13">
+        <v>5</v>
       </c>
       <c r="J95">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="K95" t="s">
         <v>39</v>
       </c>
       <c r="L95" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P95" s="7" t="s">
-        <v>30</v>
+      <c r="P95" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S95" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
-      </c>
-      <c r="C96" t="s">
-        <v>39</v>
+        <v>392</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
         <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="13">
+        <v>3</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J96">
+        <v>2020</v>
+      </c>
+      <c r="K96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" t="s">
+        <v>393</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S96" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>396</v>
+      </c>
+      <c r="B97" t="s">
+        <v>328</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
         <v>5</v>
       </c>
-      <c r="J96">
-        <v>2005</v>
-      </c>
-      <c r="K96" t="s">
-        <v>39</v>
-      </c>
-      <c r="L96" t="s">
-        <v>390</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P96" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R96" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S96" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>392</v>
-      </c>
-      <c r="B97" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" t="s">
-        <v>3</v>
-      </c>
       <c r="I97" s="13" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="J97">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="L97" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>396</v>
+        <v>101</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>801</v>
+        <v>399</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>29</v>
@@ -9289,80 +9300,82 @@
         <v>29</v>
       </c>
       <c r="S97" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>900</v>
       </c>
       <c r="B98" t="s">
-        <v>329</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D98" t="s">
+        <v>901</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>399</v>
+        <v>903</v>
       </c>
       <c r="F98" t="s">
         <v>39</v>
       </c>
-      <c r="G98" t="s">
-        <v>5</v>
-      </c>
+      <c r="G98" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1"/>
       <c r="I98" s="13" t="s">
-        <v>39</v>
+        <v>904</v>
       </c>
       <c r="J98">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="K98" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" t="s">
-        <v>398</v>
+        <v>905</v>
+      </c>
+      <c r="L98" s="37" t="s">
+        <v>906</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S98" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T98" s="7"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>400</v>
       </c>
-      <c r="O98" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P98" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q98" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R98" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S98" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>401</v>
       </c>
-      <c r="B99" t="s">
-        <v>402</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F99" t="s">
         <v>39</v>
@@ -9371,7 +9384,7 @@
         <v>14</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J99">
         <v>2022</v>
@@ -9380,45 +9393,45 @@
         <v>23</v>
       </c>
       <c r="L99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M99" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S99" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>406</v>
       </c>
-      <c r="N99" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P99" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R99" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S99" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>407</v>
       </c>
-      <c r="B100" t="s">
-        <v>408</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F100" t="s">
         <v>39</v>
@@ -9427,7 +9440,7 @@
         <v>15</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J100">
         <v>2022</v>
@@ -9436,37 +9449,37 @@
         <v>23</v>
       </c>
       <c r="L100" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M100" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S100" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>412</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R100" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S100" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>413</v>
       </c>
-      <c r="B101" t="s">
-        <v>414</v>
-      </c>
       <c r="C101" t="s">
         <v>39</v>
       </c>
@@ -9474,13 +9487,13 @@
         <v>39</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F101" t="s">
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="I101" s="13">
         <v>4</v>
@@ -9489,17 +9502,17 @@
         <v>2019</v>
       </c>
       <c r="K101" t="s">
+        <v>414</v>
+      </c>
+      <c r="L101" t="s">
         <v>415</v>
       </c>
-      <c r="L101" t="s">
-        <v>416</v>
-      </c>
       <c r="M101" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="O101" s="7" t="s">
         <v>29</v>
       </c>
@@ -9516,18 +9529,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="B102" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F102" t="s">
         <v>39</v>
@@ -9536,7 +9549,7 @@
         <v>8</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J102">
         <v>2024</v>
@@ -9545,13 +9558,13 @@
         <v>145</v>
       </c>
       <c r="L102" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="O102" s="7" t="s">
         <v>29</v>
@@ -9569,12 +9582,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="C103" t="s">
         <v>39</v>
@@ -9601,39 +9614,39 @@
         <v>61</v>
       </c>
       <c r="L103" t="s">
+        <v>421</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N103" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R103" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S103" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>422</v>
       </c>
-      <c r="M103" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N103" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P103" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q103" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R103" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S103" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>423</v>
       </c>
-      <c r="B104" t="s">
-        <v>424</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D104" t="s">
         <v>32</v>
@@ -9648,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J104">
         <v>2020</v>
@@ -9657,45 +9670,45 @@
         <v>23</v>
       </c>
       <c r="L104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M104" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N104" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="N104" s="3" t="s">
+      <c r="O104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S104" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>429</v>
       </c>
-      <c r="O104" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q104" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R104" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S104" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>430</v>
       </c>
-      <c r="B105" t="s">
-        <v>431</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F105" t="s">
         <v>39</v>
@@ -9704,7 +9717,7 @@
         <v>16</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J105">
         <v>2022</v>
@@ -9713,164 +9726,164 @@
         <v>23</v>
       </c>
       <c r="L105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M105" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S105" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="22"/>
+      <c r="I106" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J106" s="22">
+        <v>2025</v>
+      </c>
+      <c r="K106" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L106" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="M106" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="N106" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="O106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R106" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S106" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="F107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="I107" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J107" s="22">
+        <v>2025</v>
+      </c>
+      <c r="K107" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L107" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="M107" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="N107" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="O107" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q107" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R107" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S107" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>684</v>
+      </c>
+      <c r="B108" t="s">
+        <v>849</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D108" t="s">
+        <v>439</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F108" t="s">
         <v>435</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="O105" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R105" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S105" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>861</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="F106" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="23"/>
-      <c r="I106" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="J106" s="23">
-        <v>2025</v>
-      </c>
-      <c r="K106" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L106" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="M106" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="N106" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="O106" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P106" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q106" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R106" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S106" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>874</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>714</v>
-      </c>
-      <c r="F107" t="s">
-        <v>39</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="J107" s="23">
-        <v>2025</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L107" s="23" t="s">
-        <v>713</v>
-      </c>
-      <c r="M107" s="21" t="s">
-        <v>715</v>
-      </c>
-      <c r="N107" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="O107" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P107" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q107" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R107" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S107" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>697</v>
-      </c>
-      <c r="B108" t="s">
-        <v>863</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D108" t="s">
-        <v>440</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F108" t="s">
-        <v>436</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -9879,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J108">
         <v>2025</v>
@@ -9888,45 +9901,45 @@
         <v>106</v>
       </c>
       <c r="L108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M108" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S108" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>686</v>
+      </c>
+      <c r="B109" t="s">
+        <v>850</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D109" t="s">
         <v>439</v>
       </c>
-      <c r="N108" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="O108" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P108" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q108" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R108" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S108" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>699</v>
-      </c>
-      <c r="B109" t="s">
-        <v>864</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D109" t="s">
-        <v>440</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F109" t="s">
         <v>39</v>
@@ -9935,10 +9948,10 @@
         <v>10</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J109">
         <v>2025</v>
@@ -9947,102 +9960,102 @@
         <v>106</v>
       </c>
       <c r="L109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M109" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S109" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="N109" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="O109" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P109" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q109" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R109" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S109" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>865</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>876</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>718</v>
+      <c r="E110" s="24" t="s">
+        <v>705</v>
       </c>
       <c r="F110" t="s">
         <v>39</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G110" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="J110" s="23">
+      <c r="H110" s="22"/>
+      <c r="I110" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J110" s="22">
         <v>2025</v>
       </c>
-      <c r="K110" s="23" t="s">
+      <c r="K110" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L110" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="M110" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="N110" s="21" t="s">
-        <v>720</v>
-      </c>
-      <c r="O110" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P110" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q110" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R110" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S110" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L110" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="M110" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="N110" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="O110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R110" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S110" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B111" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F111" t="s">
         <v>39</v>
@@ -10054,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J111">
         <v>2025</v>
@@ -10063,45 +10076,45 @@
         <v>106</v>
       </c>
       <c r="L111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M111" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S111" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>690</v>
+      </c>
+      <c r="B112" t="s">
+        <v>853</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D112" t="s">
         <v>439</v>
       </c>
-      <c r="N111" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="O111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S111" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>703</v>
-      </c>
-      <c r="B112" t="s">
-        <v>867</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D112" t="s">
-        <v>440</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F112" t="s">
         <v>39</v>
@@ -10110,10 +10123,10 @@
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J112">
         <v>2025</v>
@@ -10122,13 +10135,13 @@
         <v>106</v>
       </c>
       <c r="L112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="O112" s="7" t="s">
         <v>29</v>
@@ -10148,19 +10161,19 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B113" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F113" t="s">
         <v>39</v>
@@ -10172,7 +10185,7 @@
         <v>4</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J113">
         <v>2025</v>
@@ -10181,104 +10194,104 @@
         <v>106</v>
       </c>
       <c r="L113" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M113" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S113" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="N113" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="O113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S113" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
-        <v>721</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>869</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>724</v>
+      <c r="E114" s="24" t="s">
+        <v>711</v>
       </c>
       <c r="F114" t="s">
         <v>39</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="G114" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H114" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="I114" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="J114" s="23">
+      <c r="H114" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="I114" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J114" s="22">
         <v>2025</v>
       </c>
-      <c r="K114" s="23" t="s">
+      <c r="K114" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L114" s="23" t="s">
-        <v>722</v>
-      </c>
-      <c r="M114" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="N114" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="O114" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P114" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q114" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R114" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S114" s="26" t="s">
+      <c r="L114" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="M114" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="N114" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="O114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R114" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S114" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B115" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="D115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F115" t="s">
         <v>39</v>
@@ -10290,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J115">
         <v>2025</v>
@@ -10299,13 +10312,13 @@
         <v>106</v>
       </c>
       <c r="L115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="O115" s="7" t="s">
         <v>29</v>
@@ -10325,19 +10338,19 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B116" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="D116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F116" t="s">
         <v>39</v>
@@ -10346,7 +10359,7 @@
         <v>10</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J116">
         <v>2020</v>
@@ -10355,13 +10368,13 @@
         <v>106</v>
       </c>
       <c r="L116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="O116" s="7" t="s">
         <v>29</v>
@@ -10381,19 +10394,19 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B117" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F117" t="s">
         <v>39</v>
@@ -10402,10 +10415,10 @@
         <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="J117">
         <v>2025</v>
@@ -10414,13 +10427,13 @@
         <v>106</v>
       </c>
       <c r="L117" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="O117" s="7" t="s">
         <v>29</v>
@@ -10439,77 +10452,77 @@
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>726</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>873</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>728</v>
+      <c r="A118" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>715</v>
       </c>
       <c r="F118" t="s">
         <v>39</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="G118" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="23"/>
-      <c r="I118" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="J118" s="23">
+      <c r="H118" s="22"/>
+      <c r="I118" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="J118" s="22">
         <v>2025</v>
       </c>
-      <c r="K118" s="23" t="s">
+      <c r="K118" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L118" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="M118" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="N118" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="O118" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P118" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q118" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R118" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S118" s="26" t="s">
+      <c r="L118" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="M118" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="N118" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="O118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S118" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" t="s">
         <v>460</v>
       </c>
-      <c r="B119" t="s">
-        <v>461</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F119" t="s">
         <v>39</v>
@@ -10518,7 +10531,7 @@
         <v>17</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J119">
         <v>2022</v>
@@ -10527,13 +10540,13 @@
         <v>23</v>
       </c>
       <c r="L119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="O119" s="7" t="s">
         <v>29</v>
@@ -10553,19 +10566,19 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" t="s">
         <v>466</v>
       </c>
-      <c r="B120" t="s">
-        <v>467</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="D120" t="s">
         <v>39</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F120" t="s">
         <v>39</v>
@@ -10580,48 +10593,48 @@
         <v>2016</v>
       </c>
       <c r="K120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L120" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M120" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="N120" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="N120" s="3" t="s">
+      <c r="O120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R120" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S120" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>471</v>
       </c>
-      <c r="O120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R120" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S120" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>472</v>
-      </c>
       <c r="B121" t="s">
+        <v>438</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D121" t="s">
         <v>439</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D121" t="s">
-        <v>440</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F121" t="s">
         <v>39</v>
@@ -10631,7 +10644,7 @@
       </c>
       <c r="H121"/>
       <c r="I121" s="13" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="J121">
         <v>2024</v>
@@ -10640,13 +10653,13 @@
         <v>106</v>
       </c>
       <c r="L121" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="O121" s="7" t="s">
         <v>29</v>
@@ -10667,19 +10680,19 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>474</v>
+      </c>
+      <c r="B122" t="s">
         <v>475</v>
       </c>
-      <c r="B122" t="s">
-        <v>476</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="D122" t="s">
         <v>39</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F122" t="s">
         <v>39</v>
@@ -10697,16 +10710,16 @@
         <v>2020</v>
       </c>
       <c r="K122" t="s">
+        <v>476</v>
+      </c>
+      <c r="L122" t="s">
         <v>477</v>
       </c>
-      <c r="L122" t="s">
-        <v>478</v>
-      </c>
       <c r="M122" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>29</v>
@@ -10726,11 +10739,11 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>480</v>
+      </c>
+      <c r="B123" t="s">
         <v>481</v>
       </c>
-      <c r="B123" t="s">
-        <v>482</v>
-      </c>
       <c r="C123" t="s">
         <v>39</v>
       </c>
@@ -10738,7 +10751,7 @@
         <v>39</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F123" t="s">
         <v>39</v>
@@ -10759,13 +10772,13 @@
         <v>39</v>
       </c>
       <c r="L123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="P123" s="7" t="s">
         <v>29</v>
@@ -10775,13 +10788,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>485</v>
+      </c>
+      <c r="B124" t="s">
         <v>486</v>
       </c>
-      <c r="B124" t="s">
-        <v>487</v>
-      </c>
       <c r="C124" t="s">
         <v>39</v>
       </c>
@@ -10789,7 +10802,7 @@
         <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F124" t="s">
         <v>39</v>
@@ -10808,7 +10821,7 @@
         <v>39</v>
       </c>
       <c r="L124" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>39</v>
@@ -10835,13 +10848,13 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" t="s">
         <v>490</v>
       </c>
-      <c r="B125" t="s">
-        <v>491</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D125" t="s">
         <v>32</v>
@@ -10856,7 +10869,7 @@
         <v>10</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J125">
         <v>2020</v>
@@ -10865,13 +10878,13 @@
         <v>23</v>
       </c>
       <c r="L125" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="O125" s="7" t="s">
         <v>29</v>
@@ -10891,19 +10904,19 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B126" t="s">
         <v>101</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D126" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="D126" t="s">
-        <v>39</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="F126" t="s">
         <v>39</v>
@@ -10921,13 +10934,13 @@
         <v>2017</v>
       </c>
       <c r="K126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M126" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="O126" s="7" t="s">
         <v>29</v>
@@ -10945,21 +10958,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>496</v>
+      </c>
+      <c r="B127" t="s">
         <v>497</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="C127" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="F127" t="s">
         <v>39</v>
@@ -10981,9 +10994,9 @@
       </c>
       <c r="L127"/>
       <c r="M127" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="N127" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="N127" s="16" t="s">
         <v>39</v>
       </c>
       <c r="O127" s="7" t="s">
@@ -11003,24 +11016,24 @@
       </c>
       <c r="T127"/>
     </row>
-    <row r="128" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B128" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D128" t="s">
+        <v>602</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D128" t="s">
-        <v>610</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="F128" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G128" t="s">
         <v>19</v>
@@ -11038,13 +11051,13 @@
         <v>39</v>
       </c>
       <c r="L128" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="O128" s="7" t="s">
         <v>29</v>
@@ -11063,48 +11076,42 @@
       </c>
       <c r="T128"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="B129" t="s">
-        <v>597</v>
+        <v>261</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="D129" t="s">
-        <v>610</v>
+        <v>39</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>603</v>
+        <v>501</v>
       </c>
       <c r="F129" t="s">
-        <v>607</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>19</v>
-      </c>
-      <c r="H129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I129" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J129" t="s">
-        <v>39</v>
+      <c r="J129">
+        <v>2017</v>
       </c>
       <c r="K129" t="s">
         <v>39</v>
       </c>
-      <c r="L129" t="s">
-        <v>601</v>
-      </c>
       <c r="M129" s="3" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>609</v>
+        <v>502</v>
       </c>
       <c r="O129" s="7" t="s">
         <v>29</v>
@@ -11122,21 +11129,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>469</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D130" t="s">
         <v>39</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F130" t="s">
         <v>39</v>
@@ -11153,11 +11160,14 @@
       <c r="K130" t="s">
         <v>39</v>
       </c>
+      <c r="L130" t="s">
+        <v>504</v>
+      </c>
       <c r="M130" s="3" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="O130" s="7" t="s">
         <v>29</v>
@@ -11177,43 +11187,43 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B131" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>506</v>
+        <v>871</v>
       </c>
       <c r="D131" t="s">
         <v>39</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>510</v>
       </c>
       <c r="I131" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J131">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K131" t="s">
         <v>39</v>
       </c>
-      <c r="L131" t="s">
-        <v>505</v>
-      </c>
       <c r="M131" s="3" t="s">
-        <v>262</v>
+        <v>512</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>508</v>
+        <v>39</v>
       </c>
       <c r="O131" s="7" t="s">
         <v>29</v>
@@ -11225,146 +11235,147 @@
         <v>29</v>
       </c>
       <c r="R131" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S131" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>509</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>510</v>
+        <v>735</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>885</v>
+        <v>736</v>
       </c>
       <c r="D132" t="s">
         <v>39</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G132" t="s">
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>511</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="J132">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="K132" t="s">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="L132" t="s">
+        <v>235</v>
       </c>
       <c r="M132" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O132" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P132" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q132" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R132" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S132" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>513</v>
       </c>
-      <c r="N132" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O132" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P132" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q132" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R132" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S132" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" t="s">
-        <v>748</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>749</v>
+      <c r="B133" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>909</v>
       </c>
       <c r="D133" t="s">
         <v>39</v>
       </c>
+      <c r="E133" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="F133" t="s">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="J133">
+        <v>2013</v>
+      </c>
+      <c r="K133" t="s">
+        <v>39</v>
+      </c>
+      <c r="L133" t="s">
+        <v>515</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q133" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S133" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T133"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>518</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="D134" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F134" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134" t="s">
         <v>0</v>
       </c>
-      <c r="H133" t="s">
-        <v>1</v>
-      </c>
-      <c r="J133">
-        <v>2023</v>
-      </c>
-      <c r="K133" t="s">
-        <v>145</v>
-      </c>
-      <c r="L133" t="s">
-        <v>236</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="N133" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="O133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S133" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>514</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="C134" t="s">
-        <v>39</v>
-      </c>
-      <c r="D134" t="s">
-        <v>39</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F134" t="s">
-        <v>39</v>
-      </c>
-      <c r="G134" t="s">
-        <v>3</v>
-      </c>
-      <c r="H134"/>
       <c r="I134" s="13">
-        <v>1.01</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J134">
         <v>2013</v>
@@ -11373,16 +11384,16 @@
         <v>39</v>
       </c>
       <c r="L134" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>39</v>
+        <v>910</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>518</v>
+        <v>918</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P134" s="7" t="s">
         <v>29</v>
@@ -11391,37 +11402,36 @@
         <v>30</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S134" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T134"/>
+        <v>30</v>
+      </c>
+      <c r="S134" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>519</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C135" t="s">
-        <v>39</v>
+        <v>522</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>911</v>
       </c>
       <c r="D135" t="s">
         <v>39</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F135" t="s">
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135" s="13">
-        <v>1.1200000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="J135">
         <v>2013</v>
@@ -11430,16 +11440,16 @@
         <v>39</v>
       </c>
       <c r="L135" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>523</v>
+        <v>39</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>39</v>
+        <v>917</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P135" s="7" t="s">
         <v>29</v>
@@ -11448,27 +11458,30 @@
         <v>30</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S135" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="S135" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T135">
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>524</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C136" t="s">
-        <v>39</v>
+        <v>526</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>913</v>
       </c>
       <c r="D136" t="s">
         <v>39</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F136" t="s">
         <v>39</v>
@@ -11477,7 +11490,7 @@
         <v>4</v>
       </c>
       <c r="I136" s="13">
-        <v>1.03</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J136">
         <v>2013</v>
@@ -11486,16 +11499,16 @@
         <v>39</v>
       </c>
       <c r="L136" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M136" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>518</v>
+        <v>915</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P136" s="7" t="s">
         <v>29</v>
@@ -11507,36 +11520,33 @@
         <v>29</v>
       </c>
       <c r="S136" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T136">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>528</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C137" t="s">
-        <v>39</v>
+        <v>622</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>916</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F137" t="s">
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I137" s="13">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J137">
         <v>2013</v>
@@ -11545,54 +11555,55 @@
         <v>39</v>
       </c>
       <c r="L137" t="s">
+        <v>623</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O137" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P137" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q137" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R137" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S137" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>530</v>
       </c>
-      <c r="M137" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N137" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="O137" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P137" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q137" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R137" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S137" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>634</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C138" t="s">
-        <v>39</v>
+      <c r="B138" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>914</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F138" t="s">
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H138"/>
       <c r="I138" s="13">
-        <v>1.1200000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="J138">
         <v>2013</v>
@@ -11601,10 +11612,13 @@
         <v>39</v>
       </c>
       <c r="L138" t="s">
-        <v>636</v>
+        <v>532</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>39</v>
+        <v>517</v>
       </c>
       <c r="O138" s="7" t="s">
         <v>30</v>
@@ -11619,15 +11633,16 @@
         <v>30</v>
       </c>
       <c r="S138" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="T138"/>
+    </row>
+    <row r="139" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>532</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="B139" t="s">
+        <v>535</v>
       </c>
       <c r="C139" t="s">
         <v>39</v>
@@ -11636,384 +11651,328 @@
         <v>39</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F139" t="s">
         <v>39</v>
       </c>
       <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J139">
+        <v>2009</v>
+      </c>
+      <c r="K139" t="s">
+        <v>39</v>
+      </c>
+      <c r="L139" t="s">
+        <v>536</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P139" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R139" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S139" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T139"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B140" t="s">
+        <v>578</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D140" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J140">
+        <v>2024</v>
+      </c>
+      <c r="K140" t="s">
+        <v>145</v>
+      </c>
+      <c r="L140" t="s">
+        <v>579</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="O140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S140" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>538</v>
+      </c>
+      <c r="B141" t="s">
+        <v>539</v>
+      </c>
+      <c r="C141" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F141" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J141">
+        <v>2009</v>
+      </c>
+      <c r="K141" t="s">
+        <v>39</v>
+      </c>
+      <c r="L141" t="s">
+        <v>540</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O141" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P141" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q141" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R141" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S141" s="14"/>
+    </row>
+    <row r="142" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>542</v>
+      </c>
+      <c r="B142" t="s">
+        <v>543</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D142" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142" t="s">
         <v>18</v>
       </c>
-      <c r="H139"/>
-      <c r="I139" s="13">
-        <v>1.03</v>
-      </c>
-      <c r="J139">
-        <v>2013</v>
-      </c>
-      <c r="K139" t="s">
-        <v>39</v>
-      </c>
-      <c r="L139" t="s">
-        <v>534</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="O139" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P139" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q139" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R139" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S139" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T139"/>
-    </row>
-    <row r="140" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>536</v>
-      </c>
-      <c r="B140" t="s">
-        <v>537</v>
-      </c>
-      <c r="C140" t="s">
-        <v>39</v>
-      </c>
-      <c r="D140" t="s">
-        <v>39</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F140" t="s">
-        <v>39</v>
-      </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140"/>
-      <c r="I140" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J140">
-        <v>2009</v>
-      </c>
-      <c r="K140" t="s">
-        <v>39</v>
-      </c>
-      <c r="L140" t="s">
-        <v>538</v>
-      </c>
-      <c r="M140" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N140" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O140" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P140" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q140" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R140" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S140" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T140"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B141" t="s">
-        <v>580</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="D141" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F141" t="s">
-        <v>39</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J141">
-        <v>2024</v>
-      </c>
-      <c r="K141" t="s">
-        <v>145</v>
-      </c>
-      <c r="L141" t="s">
-        <v>581</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="N141" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="O141" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P141" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q141" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R141" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S141" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>540</v>
-      </c>
-      <c r="B142" t="s">
-        <v>541</v>
-      </c>
-      <c r="C142" t="s">
-        <v>39</v>
-      </c>
-      <c r="D142" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F142" t="s">
-        <v>39</v>
-      </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
       <c r="I142" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J142">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="K142" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L142" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>39</v>
+        <v>546</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>39</v>
+        <v>805</v>
       </c>
       <c r="O142" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P142" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q142" s="7" t="s">
         <v>29</v>
       </c>
       <c r="R142" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S142" s="14"/>
-    </row>
-    <row r="143" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="S142" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>544</v>
+        <v>808</v>
       </c>
       <c r="B143" t="s">
-        <v>545</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D143" t="s">
-        <v>32</v>
+        <v>812</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>26</v>
+        <v>808</v>
       </c>
       <c r="F143" t="s">
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="13">
+        <v>1.21</v>
       </c>
       <c r="J143">
+        <v>2006</v>
+      </c>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N143" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O143" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P143" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q143" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R143" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S143" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>552</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>0</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J144">
         <v>2020</v>
       </c>
-      <c r="K143" t="s">
-        <v>23</v>
-      </c>
-      <c r="L143" t="s">
-        <v>546</v>
-      </c>
-      <c r="M143" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="N143" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="O143" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P143" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q143" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R143" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S143" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>822</v>
-      </c>
-      <c r="B144" t="s">
-        <v>826</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="F144" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" t="s">
-        <v>7</v>
-      </c>
-      <c r="H144" s="1"/>
-      <c r="I144" s="13">
-        <v>1.21</v>
-      </c>
-      <c r="J144">
-        <v>2006</v>
-      </c>
-      <c r="K144"/>
-      <c r="L144"/>
+      <c r="K144" t="s">
+        <v>553</v>
+      </c>
+      <c r="L144" t="s">
+        <v>554</v>
+      </c>
       <c r="M144" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N144" s="21" t="s">
+      <c r="N144" s="3" t="s">
         <v>39</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P144" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q144" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R144" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S144" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="T144">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>554</v>
-      </c>
-      <c r="B145" s="5"/>
-      <c r="C145" t="s">
-        <v>39</v>
-      </c>
-      <c r="D145" t="s">
-        <v>39</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F145" t="s">
-        <v>39</v>
-      </c>
-      <c r="G145" t="s">
-        <v>0</v>
-      </c>
-      <c r="I145" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J145">
-        <v>2020</v>
-      </c>
-      <c r="K145" t="s">
-        <v>555</v>
-      </c>
-      <c r="L145" t="s">
-        <v>556</v>
-      </c>
-      <c r="M145" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N145" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O145" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P145" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q145" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R145" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S145" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T145" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="T144" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12021,10 +11980,10 @@
     <hyperlink ref="C60" r:id="rId1" xr:uid="{09689414-3477-4574-B4C1-145654B8F872}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{093A01EE-86EE-45C4-8EB3-9E2035175000}"/>
     <hyperlink ref="C20" r:id="rId3" xr:uid="{647907ED-3EF1-4900-B2E2-99B4EA674B9D}"/>
-    <hyperlink ref="C98" r:id="rId4" xr:uid="{FAE6907E-C81E-4A5D-817E-230B91B1B725}"/>
+    <hyperlink ref="C97" r:id="rId4" xr:uid="{FAE6907E-C81E-4A5D-817E-230B91B1B725}"/>
     <hyperlink ref="C49" r:id="rId5" xr:uid="{C753E4AB-C43C-4DA7-BCBB-4C6B42AE449C}"/>
-    <hyperlink ref="C132" r:id="rId6" xr:uid="{371EC661-68AD-4E55-A1EB-3AD1B3210212}"/>
-    <hyperlink ref="C131" r:id="rId7" xr:uid="{87EC244C-7916-48F7-AB46-F1434A4E3208}"/>
+    <hyperlink ref="C131" r:id="rId6" xr:uid="{371EC661-68AD-4E55-A1EB-3AD1B3210212}"/>
+    <hyperlink ref="C130" r:id="rId7" xr:uid="{87EC244C-7916-48F7-AB46-F1434A4E3208}"/>
     <hyperlink ref="C53" r:id="rId8" xr:uid="{C7C324AF-CD50-4932-996A-89F85253BFD5}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{EDB880A2-AA3E-4F26-A446-E9157F173772}"/>
     <hyperlink ref="C35" r:id="rId10" xr:uid="{9A17C16E-C332-458A-ADE6-19BE3A083F23}"/>
@@ -12047,8 +12006,8 @@
     <hyperlink ref="C57" r:id="rId27" xr:uid="{6774AFFC-3F72-4FC8-83D4-C6E9745490F7}"/>
     <hyperlink ref="C28" r:id="rId28" xr:uid="{D01E6549-8C0C-4A44-AF08-ED09A47D4252}"/>
     <hyperlink ref="C120" r:id="rId29" xr:uid="{DE66E60B-BA52-4BF5-91BF-04E031C85DF4}"/>
-    <hyperlink ref="C143" r:id="rId30" xr:uid="{6B7C0C1E-80A1-4C90-B400-939A08EB9E26}"/>
-    <hyperlink ref="C130" r:id="rId31" xr:uid="{39C94BCA-35A0-4C33-8523-A608427AF1AC}"/>
+    <hyperlink ref="C142" r:id="rId30" xr:uid="{6B7C0C1E-80A1-4C90-B400-939A08EB9E26}"/>
+    <hyperlink ref="C129" r:id="rId31" xr:uid="{39C94BCA-35A0-4C33-8523-A608427AF1AC}"/>
     <hyperlink ref="C126" r:id="rId32" xr:uid="{0078D0DD-F4F6-49B0-885D-B066223BAE60}"/>
     <hyperlink ref="C125" r:id="rId33" xr:uid="{C5712289-6DD8-4698-B94D-78A55B1677AB}"/>
     <hyperlink ref="C45" r:id="rId34" xr:uid="{009176AE-ADE1-49A3-B8B5-187A70213738}"/>
@@ -12075,10 +12034,10 @@
     <hyperlink ref="C83" r:id="rId55" xr:uid="{42BCD2DF-E790-4589-A30F-037C5CC98618}"/>
     <hyperlink ref="C84" r:id="rId56" xr:uid="{D04172B2-FA86-479A-B554-457A76AC12EB}"/>
     <hyperlink ref="C85" r:id="rId57" xr:uid="{4D285DE5-B50D-4CAB-A92F-4534B3369428}"/>
-    <hyperlink ref="C90" r:id="rId58" xr:uid="{4788DE4E-DD21-4F17-A0F5-F0127C036B93}"/>
-    <hyperlink ref="C92" r:id="rId59" xr:uid="{F8DE4A00-90C4-4883-8925-84D02A72603D}"/>
-    <hyperlink ref="C93" r:id="rId60" xr:uid="{537D1EAA-FB2D-4A1A-A7EF-263F86E9B731}"/>
-    <hyperlink ref="C97" r:id="rId61" xr:uid="{ACD371A2-0E1B-4667-A917-FB870D976F44}"/>
+    <hyperlink ref="C89" r:id="rId58" xr:uid="{4788DE4E-DD21-4F17-A0F5-F0127C036B93}"/>
+    <hyperlink ref="C91" r:id="rId59" xr:uid="{F8DE4A00-90C4-4883-8925-84D02A72603D}"/>
+    <hyperlink ref="C92" r:id="rId60" xr:uid="{537D1EAA-FB2D-4A1A-A7EF-263F86E9B731}"/>
+    <hyperlink ref="C96" r:id="rId61" xr:uid="{ACD371A2-0E1B-4667-A917-FB870D976F44}"/>
     <hyperlink ref="C99" r:id="rId62" xr:uid="{280984BC-9AF6-43D6-B7C6-0B942360A963}"/>
     <hyperlink ref="C100" r:id="rId63" xr:uid="{076877CE-8ABA-4EB5-BBFC-50357A612F35}"/>
     <hyperlink ref="C104" r:id="rId64" xr:uid="{5628464F-D8DE-4F76-9B77-04A7AFF90F62}"/>
@@ -12098,172 +12057,174 @@
     <hyperlink ref="C21" r:id="rId78" xr:uid="{741DF32C-57B4-4296-8D2B-447F78C164E4}"/>
     <hyperlink ref="C2" r:id="rId79" xr:uid="{9C1B3465-ED4E-4642-BA4D-5C7E5510B7B6}"/>
     <hyperlink ref="C66" r:id="rId80" xr:uid="{AB3EAE1F-65EA-44FC-AB99-16D2D5ED71B3}"/>
-    <hyperlink ref="C141" r:id="rId81" xr:uid="{CF6EACC9-E6EB-45BD-B707-52712C2A62C9}"/>
-    <hyperlink ref="C91" r:id="rId82" xr:uid="{02D0ECDA-FD32-4CF7-8440-EC4C7DCD63E5}"/>
+    <hyperlink ref="C140" r:id="rId81" xr:uid="{CF6EACC9-E6EB-45BD-B707-52712C2A62C9}"/>
+    <hyperlink ref="C90" r:id="rId82" xr:uid="{02D0ECDA-FD32-4CF7-8440-EC4C7DCD63E5}"/>
     <hyperlink ref="C128" r:id="rId83" location=" " xr:uid="{2FFDF6BA-7A97-4D5C-9D4F-2CCB9C0E6DED}"/>
-    <hyperlink ref="C129" r:id="rId84" xr:uid="{CD1758BF-3A91-4D59-9003-A5FA0505A063}"/>
-    <hyperlink ref="C89" r:id="rId85" xr:uid="{8F3C8855-FDC6-4E56-A1E5-A6317ABB7F6D}"/>
-    <hyperlink ref="C88" r:id="rId86" xr:uid="{7F7A3FF6-CCE9-4E2E-982B-1B4E31731333}"/>
-    <hyperlink ref="C23" r:id="rId87" xr:uid="{17D56B7A-25AE-48DC-87D5-86A3E9DAEC57}"/>
-    <hyperlink ref="C80" r:id="rId88" xr:uid="{D8CE449C-151D-4D39-B26F-B961900B9F5D}"/>
-    <hyperlink ref="C32" r:id="rId89" xr:uid="{8083253A-88C3-43D3-9D68-6E726A4F9587}"/>
-    <hyperlink ref="C69" r:id="rId90" xr:uid="{9E0E87F8-6FE5-4DF7-B96C-922AD4830E08}"/>
-    <hyperlink ref="C30" r:id="rId91" xr:uid="{4972827C-BEE0-44B4-A458-FDE24FCE89C0}"/>
-    <hyperlink ref="C29" r:id="rId92" xr:uid="{AA048B82-F6AA-4179-9DA8-92CB88AA34CD}"/>
-    <hyperlink ref="C26" r:id="rId93" xr:uid="{1218E00E-EF0C-494E-BECE-099FB05742E5}"/>
-    <hyperlink ref="C102" r:id="rId94" xr:uid="{860357C4-6C5E-4883-814C-F21FA9C924DE}"/>
-    <hyperlink ref="C106" r:id="rId95" xr:uid="{16AB466E-682E-47B8-A4E2-382FD289A028}"/>
-    <hyperlink ref="C107" r:id="rId96" xr:uid="{6DCCCDA1-E5B8-4573-BC96-2C385646B65F}"/>
-    <hyperlink ref="C110" r:id="rId97" xr:uid="{5ED2B850-5619-4803-9E96-99424F17CB82}"/>
-    <hyperlink ref="C114" r:id="rId98" xr:uid="{F046FA23-A48D-4FEC-B2CE-9AD00AACEB66}"/>
-    <hyperlink ref="C118" r:id="rId99" xr:uid="{1F850D9E-5286-41BA-90F6-0FD05DFBBBE5}"/>
-    <hyperlink ref="E4" r:id="rId100" xr:uid="{811C4818-C847-4731-BB38-2D52F1834045}"/>
-    <hyperlink ref="E10" r:id="rId101" xr:uid="{94100DD3-02BF-4E61-A172-C4A9D09569F8}"/>
-    <hyperlink ref="E14" r:id="rId102" location="s0035" xr:uid="{13AE09A2-4522-46D1-AC75-5B95A8D15C9C}"/>
-    <hyperlink ref="E47" r:id="rId103" xr:uid="{5C414BC3-1364-419D-9DDD-1A6F60C0D845}"/>
-    <hyperlink ref="E60" r:id="rId104" xr:uid="{C5A0DFB4-1FB7-49B8-8FD3-9AC01312958D}"/>
-    <hyperlink ref="E95" r:id="rId105" xr:uid="{51CBF759-50E7-428F-81D5-CB1BF0D6F9DE}"/>
-    <hyperlink ref="E124" r:id="rId106" xr:uid="{DD230CEE-1804-40FB-BD78-0C67303DB967}"/>
-    <hyperlink ref="E132" r:id="rId107" location="f0020" xr:uid="{3778DDB7-E612-4F6A-A3B0-B453CF8B64A9}"/>
-    <hyperlink ref="E87" r:id="rId108" xr:uid="{88E00939-FB4B-46C7-8C26-9BF914C2DEFC}"/>
-    <hyperlink ref="E120" r:id="rId109" xr:uid="{1BF75D9D-D348-4E2D-9C84-905D4A8F3B25}"/>
-    <hyperlink ref="E42" r:id="rId110" xr:uid="{731847B6-AFA8-4FD0-B2B9-DA4073CF6576}"/>
-    <hyperlink ref="E139" r:id="rId111" xr:uid="{A734FA6A-1E5E-4197-893E-26AEB8863486}"/>
-    <hyperlink ref="E135" r:id="rId112" xr:uid="{2DAAFB64-43EF-4609-9512-3EECAF83A0D8}"/>
-    <hyperlink ref="E13" r:id="rId113" location="s0035" xr:uid="{B0E30218-34ED-4F0F-8578-9A603C364391}"/>
-    <hyperlink ref="E140" r:id="rId114" xr:uid="{33D09351-6D20-4F3E-B2E7-73DE845CAB80}"/>
-    <hyperlink ref="E142" r:id="rId115" xr:uid="{BA5C5148-161B-4925-9347-1EBB2828D7A5}"/>
-    <hyperlink ref="E122" r:id="rId116" xr:uid="{686C1381-B3D9-4F4F-B355-F6C8BDA10898}"/>
-    <hyperlink ref="E145" r:id="rId117" xr:uid="{8A34E89F-B55C-44D1-9032-56436D05CE5D}"/>
-    <hyperlink ref="E24" r:id="rId118" xr:uid="{F267D5CF-D0FE-473C-A3F7-FECCC233A441}"/>
-    <hyperlink ref="E31" r:id="rId119" xr:uid="{442EB302-E477-4F77-B393-3E4D99A564E5}"/>
-    <hyperlink ref="E46" r:id="rId120" xr:uid="{D135E4D3-2F2E-469B-85FF-8BEC89A2618B}"/>
-    <hyperlink ref="E5" r:id="rId121" xr:uid="{12D8EB59-83CA-4597-928E-5FE6B23E156B}"/>
-    <hyperlink ref="E130" r:id="rId122" xr:uid="{81632F3A-005C-4176-BECE-2F3B9EEB6891}"/>
-    <hyperlink ref="E94" r:id="rId123" xr:uid="{37A04716-A03F-4D57-96D9-A5BFAD7D2359}"/>
-    <hyperlink ref="E127" r:id="rId124" xr:uid="{0E7FBF6C-CAA7-4FF2-A8EE-7F2D8A88BF96}"/>
-    <hyperlink ref="E136" r:id="rId125" xr:uid="{D55E6DD1-6984-4A50-A0AD-BA6FF596E41C}"/>
-    <hyperlink ref="E103" r:id="rId126" xr:uid="{2B877B96-8FD1-4F41-B88E-AD70830BE725}"/>
-    <hyperlink ref="E134" r:id="rId127" xr:uid="{7CB9413F-F297-47A4-B2F8-2E8BEC8F96E8}"/>
-    <hyperlink ref="E25" r:id="rId128" xr:uid="{FA27BDCB-DB0A-480B-876B-7B017E0E677B}"/>
-    <hyperlink ref="E20" r:id="rId129" xr:uid="{48520E64-60FA-43C7-9523-3F8A2187E6CC}"/>
-    <hyperlink ref="E22" r:id="rId130" xr:uid="{05E3211D-230E-48F4-BB1E-822C21AAAFED}"/>
-    <hyperlink ref="E59" r:id="rId131" xr:uid="{FD6A6FF4-BD3D-4A75-A3F7-C6081FFB6C91}"/>
-    <hyperlink ref="E78" r:id="rId132" xr:uid="{A79F7F03-9B5B-4489-B080-107B98530A6B}"/>
-    <hyperlink ref="E99" r:id="rId133" xr:uid="{F431B0F7-5D38-4E60-AD18-2B301C1F824A}"/>
-    <hyperlink ref="E100" r:id="rId134" xr:uid="{8D237475-1999-48E3-B25D-339AE9C8EDD4}"/>
-    <hyperlink ref="E105" r:id="rId135" xr:uid="{6CFEE99F-77B8-453F-B0EB-481B5544EB7E}"/>
-    <hyperlink ref="E119" r:id="rId136" xr:uid="{0095BCC3-FA71-4827-B8E0-87D678153928}"/>
-    <hyperlink ref="E28" r:id="rId137" xr:uid="{620BDACF-75EA-4500-BA77-23B953049278}"/>
-    <hyperlink ref="E101" r:id="rId138" xr:uid="{E4CE47AF-12EB-4DBE-9E99-0FABFC9402A8}"/>
-    <hyperlink ref="E123" r:id="rId139" xr:uid="{A59ECC74-526B-4136-A3D5-05BA9BB6787C}"/>
-    <hyperlink ref="E126" r:id="rId140" xr:uid="{D6FF6640-82FF-4A0D-A828-72ED67D3AD4F}"/>
-    <hyperlink ref="E143" r:id="rId141" xr:uid="{9B13D64B-97F0-4098-BAE2-F0343CD81A80}"/>
-    <hyperlink ref="E137" r:id="rId142" xr:uid="{BADE4669-D317-4460-B448-C8D94D35753B}"/>
-    <hyperlink ref="E131" r:id="rId143" xr:uid="{850A2301-83A8-46A6-86BC-61587D12CD21}"/>
-    <hyperlink ref="E125" r:id="rId144" xr:uid="{7E135D94-3307-4285-876D-E50B63D987DF}"/>
-    <hyperlink ref="E58" r:id="rId145" xr:uid="{1AED701A-018D-49C9-969C-0C378A17C522}"/>
-    <hyperlink ref="E63" r:id="rId146" xr:uid="{184F465E-B6F3-4207-8050-030FFF3C7183}"/>
-    <hyperlink ref="E33" r:id="rId147" xr:uid="{6543D113-650C-4476-8130-C0483837619C}"/>
-    <hyperlink ref="E34" r:id="rId148" xr:uid="{FF0B3ADF-CBF0-42B9-8D3E-864E6D620CF1}"/>
-    <hyperlink ref="E41" r:id="rId149" xr:uid="{3E97C6A8-683F-4E0F-B475-3D5C212C5AFB}"/>
-    <hyperlink ref="E35" r:id="rId150" xr:uid="{CCEC51F1-262A-4CCF-80C1-A2B666658C93}"/>
-    <hyperlink ref="E36" r:id="rId151" xr:uid="{C206D26F-C731-4AF1-BD04-B213908CD9B9}"/>
-    <hyperlink ref="E37" r:id="rId152" xr:uid="{14EDB458-A34B-4779-9965-F5FE1CCB50B4}"/>
-    <hyperlink ref="E38" r:id="rId153" xr:uid="{3E1D03BB-6005-4825-A023-802A774824DD}"/>
-    <hyperlink ref="E39" r:id="rId154" xr:uid="{D171B4DD-4752-4A1C-B749-476C3263BFA2}"/>
-    <hyperlink ref="E50" r:id="rId155" xr:uid="{C6824C04-CEDB-4179-8131-356484F7C66A}"/>
-    <hyperlink ref="E49" r:id="rId156" xr:uid="{F0A47980-178B-4307-BC06-208B0A0787C0}"/>
-    <hyperlink ref="E6" r:id="rId157" xr:uid="{006F9965-F9A0-4D18-8A5E-055D979E592B}"/>
-    <hyperlink ref="E7" r:id="rId158" xr:uid="{42036A72-05E5-4B54-A1E5-2DE4DEC53013}"/>
-    <hyperlink ref="E8" r:id="rId159" xr:uid="{30D4BCEA-77E7-4F67-9879-7D974DDCB30D}"/>
-    <hyperlink ref="E9" r:id="rId160" xr:uid="{27745033-13CE-45AE-B517-ECF515AB30D0}"/>
-    <hyperlink ref="E11" r:id="rId161" xr:uid="{652AB408-8BA1-4CFB-95EC-99AE53E42B68}"/>
-    <hyperlink ref="E15" r:id="rId162" xr:uid="{60B241F5-B00E-49A2-B401-FAD99BF0E300}"/>
-    <hyperlink ref="E16" r:id="rId163" xr:uid="{652270A6-F3A5-4CCF-ABA7-C14BC5C42423}"/>
-    <hyperlink ref="E17" r:id="rId164" xr:uid="{63180BA9-A5BF-48B3-9FB4-C4B440D39A56}"/>
-    <hyperlink ref="E18" r:id="rId165" xr:uid="{6F6B612D-7ED2-4FC1-8D0B-A4BB4951744D}"/>
-    <hyperlink ref="E19" r:id="rId166" xr:uid="{E69650D7-F915-46E1-8F1F-02B7FFB12F2E}"/>
-    <hyperlink ref="E21" r:id="rId167" xr:uid="{CA514BF8-8B41-4BFC-AC79-0B520CB3F2AC}"/>
-    <hyperlink ref="E43" r:id="rId168" xr:uid="{54FE9C2C-B8A0-4854-A022-1A7169CD0C72}"/>
-    <hyperlink ref="E51" r:id="rId169" xr:uid="{0C047F6E-8077-4EDF-9184-56251B4A40EC}"/>
-    <hyperlink ref="E52" r:id="rId170" xr:uid="{A883FFE8-5423-44FE-B5C8-56C449AB6627}"/>
-    <hyperlink ref="E55" r:id="rId171" xr:uid="{A14809D5-65CA-4A10-8330-439AF1AB07EB}"/>
-    <hyperlink ref="E56" r:id="rId172" xr:uid="{16F6BA4E-D132-404A-B8A5-6A4055D3B1DE}"/>
-    <hyperlink ref="E62" r:id="rId173" xr:uid="{ED6CF27F-6387-4DE6-BE4C-E850E5881B88}"/>
-    <hyperlink ref="E65" r:id="rId174" xr:uid="{E9B998E1-EC82-42B0-AACA-73FB4DD88CE9}"/>
-    <hyperlink ref="E72" r:id="rId175" xr:uid="{47645E3C-39E5-4CAC-8820-A7C6FD8B5579}"/>
-    <hyperlink ref="E73" r:id="rId176" xr:uid="{0625CF4F-DA2B-4EE7-A702-0219AD1C68CB}"/>
-    <hyperlink ref="E74" r:id="rId177" xr:uid="{0282C361-4DE5-48B1-9823-FCE619290498}"/>
-    <hyperlink ref="E75" r:id="rId178" xr:uid="{67DEF3F7-0CAA-4CD6-8D88-5F8DB78DE540}"/>
-    <hyperlink ref="E76" r:id="rId179" xr:uid="{D969C0A9-F9DD-4566-8223-41D811B4D5C6}"/>
-    <hyperlink ref="E77" r:id="rId180" xr:uid="{CA72B61B-2AF9-4500-84C6-0F0C62189095}"/>
-    <hyperlink ref="E81" r:id="rId181" xr:uid="{EC57EFF2-9F41-45C7-A332-FFA2687C3F75}"/>
-    <hyperlink ref="E82" r:id="rId182" xr:uid="{149A410F-01E9-4C9E-A3BF-8106E7830F57}"/>
-    <hyperlink ref="E83" r:id="rId183" xr:uid="{1AA34E58-053E-4462-B269-60B1C19E26FF}"/>
-    <hyperlink ref="E84" r:id="rId184" xr:uid="{BEF77FE6-2F82-47F6-B96C-ADAF84945125}"/>
-    <hyperlink ref="E85" r:id="rId185" xr:uid="{F2874A98-0A0B-45C2-8CD6-EA4A785A2370}"/>
-    <hyperlink ref="E90" r:id="rId186" xr:uid="{CA4C0D7C-9C19-4E48-A158-F4413BD6178C}"/>
-    <hyperlink ref="E92" r:id="rId187" xr:uid="{EEFF914F-ABA0-4E3C-9FD5-12FBECFDBB91}"/>
-    <hyperlink ref="E93" r:id="rId188" xr:uid="{88EE7216-4A06-465B-8FC6-606F50CBCFBC}"/>
-    <hyperlink ref="E96" r:id="rId189" xr:uid="{7BDEE9B8-5D7C-4202-B74C-6BE982C328AB}"/>
-    <hyperlink ref="E97" r:id="rId190" xr:uid="{77709C72-C9F9-499D-B133-6DF9E7E61890}"/>
-    <hyperlink ref="E98" r:id="rId191" xr:uid="{4F359565-B34E-4BD5-803D-7DC3D9732BAD}"/>
-    <hyperlink ref="E104" r:id="rId192" xr:uid="{A5574257-EDF9-4DC4-9A80-018F938B8B76}"/>
-    <hyperlink ref="E108" r:id="rId193" xr:uid="{E6837BC7-5BFC-4721-BAEC-5150ACC2E92A}"/>
-    <hyperlink ref="E109" r:id="rId194" xr:uid="{5AE70EB7-4DA2-4D5D-B00B-AE08DC919335}"/>
-    <hyperlink ref="E111" r:id="rId195" xr:uid="{C7A06CCF-1682-41F2-925C-4CCAC157C4E2}"/>
-    <hyperlink ref="E112" r:id="rId196" xr:uid="{2C04A538-B780-4A40-A836-B3954133A859}"/>
-    <hyperlink ref="E113" r:id="rId197" xr:uid="{533F3B58-531B-4E96-AF2B-08DB72D544CF}"/>
-    <hyperlink ref="E115" r:id="rId198" xr:uid="{62821B07-9EEB-41DA-A82A-CCDC6B6E1FB3}"/>
-    <hyperlink ref="E116" r:id="rId199" xr:uid="{B0802ADB-CF30-44C5-89E2-BCFA655BA70A}"/>
-    <hyperlink ref="E117" r:id="rId200" xr:uid="{9471BEB4-CC62-4A65-95D9-0E8F08554CFE}"/>
-    <hyperlink ref="E121" r:id="rId201" xr:uid="{349E9ACC-59EC-49C5-8729-16D1175BEF4F}"/>
-    <hyperlink ref="E57" r:id="rId202" xr:uid="{BB6956D7-23ED-4A46-A37D-A8372BE7A10E}"/>
-    <hyperlink ref="E2" r:id="rId203" xr:uid="{FA6C54D1-21A6-4366-A61A-B63E45510502}"/>
-    <hyperlink ref="E12" r:id="rId204" xr:uid="{1811DDC7-B1CB-48D6-97CC-8589C8A392B3}"/>
-    <hyperlink ref="E66" r:id="rId205" xr:uid="{C5DA3CF3-7B30-4A03-82DD-7F2E14081684}"/>
-    <hyperlink ref="E141" r:id="rId206" xr:uid="{7115DB7A-AE90-495D-9676-EA1BA0F179A0}"/>
-    <hyperlink ref="E91" r:id="rId207" xr:uid="{E875AA82-E9BD-43BA-B96A-443BE71A661D}"/>
-    <hyperlink ref="E129" r:id="rId208" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{BBE9CA7C-304D-4A17-9523-1E881C2EBC88}"/>
-    <hyperlink ref="E128" r:id="rId209" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{1198A376-FAFB-4B63-8F31-3CC40DDC0188}"/>
-    <hyperlink ref="E89" r:id="rId210" xr:uid="{3F5F558B-929D-4838-A0B3-16FF2C0599DC}"/>
-    <hyperlink ref="E88" r:id="rId211" xr:uid="{CDB629AC-7318-4A45-902E-8C95EF4661CF}"/>
-    <hyperlink ref="E27" r:id="rId212" xr:uid="{F20CB13F-7541-474A-BB7F-D8B745D301C0}"/>
-    <hyperlink ref="E138" r:id="rId213" xr:uid="{62676230-6266-4D08-B848-64E61BE4B592}"/>
-    <hyperlink ref="E80" r:id="rId214" display="https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3" xr:uid="{AE487E94-18DC-4254-BE84-4C41E95CF5BD}"/>
-    <hyperlink ref="E32" r:id="rId215" xr:uid="{3B2D46D8-B3FB-420A-B722-C4AE65399511}"/>
-    <hyperlink ref="E69" r:id="rId216" xr:uid="{CEDD056B-0AF1-476A-BD5E-3BDADF64D853}"/>
-    <hyperlink ref="E30" r:id="rId217" xr:uid="{5E225EF5-93E6-41EE-89D9-FFE8A5198461}"/>
-    <hyperlink ref="E29" r:id="rId218" xr:uid="{074596C3-DC36-46D9-B1FA-6177FB0CE294}"/>
-    <hyperlink ref="E26" r:id="rId219" xr:uid="{8839DCA9-B1C9-4B05-BAA3-2A9B25F26A93}"/>
-    <hyperlink ref="E102" r:id="rId220" xr:uid="{16B53E58-79E0-4B7C-AC2E-C71F2322D92F}"/>
-    <hyperlink ref="E68" r:id="rId221" xr:uid="{7E895DE5-2CE7-45C1-A136-57B4BCE29015}"/>
-    <hyperlink ref="E67" r:id="rId222" xr:uid="{47784ED5-2C28-44C3-81EB-31DA2532A95A}"/>
-    <hyperlink ref="E48" r:id="rId223" xr:uid="{D997BB59-BF3F-477F-A29B-A26EC0C6DB4C}"/>
-    <hyperlink ref="E106" r:id="rId224" xr:uid="{8B03E269-70CC-43E2-802D-196D1A76D2C6}"/>
-    <hyperlink ref="E107" r:id="rId225" xr:uid="{4CB1390B-88E8-414B-819B-3EBA1096C650}"/>
-    <hyperlink ref="E110" r:id="rId226" xr:uid="{7E0BEE99-7810-43FE-8B6E-F313CACD1280}"/>
-    <hyperlink ref="E114" r:id="rId227" xr:uid="{A941CDD9-0B08-4ACA-8885-324C2A700E2F}"/>
-    <hyperlink ref="E118" r:id="rId228" xr:uid="{4183CDB1-AB57-415B-91B7-AABB33124063}"/>
-    <hyperlink ref="E61" r:id="rId229" xr:uid="{BE8311D4-A8A6-4008-870A-9CEF9052ED5C}"/>
-    <hyperlink ref="C133" r:id="rId230" xr:uid="{8A2C5288-ADB4-463A-85BA-B1183BAF8DDF}"/>
-    <hyperlink ref="C55" r:id="rId231" xr:uid="{07F92C0D-DB82-4582-A72B-52659867C160}"/>
-    <hyperlink ref="C8" r:id="rId232" xr:uid="{A84DDA47-6ACC-464D-952D-0387101E0611}"/>
-    <hyperlink ref="C144" r:id="rId233" xr:uid="{AE033172-A711-4880-AB36-40FB9AE60B05}"/>
-    <hyperlink ref="C3" r:id="rId234" xr:uid="{87BD7AD7-F7D3-4FFD-A9E2-12853E86A7FE}"/>
-    <hyperlink ref="E3" r:id="rId235" xr:uid="{512DDB69-1C56-4690-B2D9-AC64B48E7A6E}"/>
-    <hyperlink ref="C54" r:id="rId236" xr:uid="{0F674644-7FE0-46D4-B1A3-3075C11E0658}"/>
-    <hyperlink ref="C64" r:id="rId237" xr:uid="{1EFCCF69-133B-446A-B214-3B92B837A2A4}"/>
-    <hyperlink ref="E64" r:id="rId238" xr:uid="{D09DEDB3-49E2-4C48-B494-81711DA43BF0}"/>
-    <hyperlink ref="C71" r:id="rId239" display="https://w3id.org/hmo" xr:uid="{E4AF1C6F-DF28-43F7-ACA9-70BE220B042B}"/>
-    <hyperlink ref="E71" r:id="rId240" xr:uid="{49B2000D-4C70-49FD-A5F3-84C8A5029347}"/>
+    <hyperlink ref="C88" r:id="rId84" xr:uid="{7F7A3FF6-CCE9-4E2E-982B-1B4E31731333}"/>
+    <hyperlink ref="C23" r:id="rId85" xr:uid="{17D56B7A-25AE-48DC-87D5-86A3E9DAEC57}"/>
+    <hyperlink ref="C80" r:id="rId86" xr:uid="{D8CE449C-151D-4D39-B26F-B961900B9F5D}"/>
+    <hyperlink ref="C32" r:id="rId87" xr:uid="{8083253A-88C3-43D3-9D68-6E726A4F9587}"/>
+    <hyperlink ref="C69" r:id="rId88" xr:uid="{9E0E87F8-6FE5-4DF7-B96C-922AD4830E08}"/>
+    <hyperlink ref="C30" r:id="rId89" xr:uid="{4972827C-BEE0-44B4-A458-FDE24FCE89C0}"/>
+    <hyperlink ref="C29" r:id="rId90" xr:uid="{AA048B82-F6AA-4179-9DA8-92CB88AA34CD}"/>
+    <hyperlink ref="C26" r:id="rId91" xr:uid="{1218E00E-EF0C-494E-BECE-099FB05742E5}"/>
+    <hyperlink ref="C102" r:id="rId92" xr:uid="{860357C4-6C5E-4883-814C-F21FA9C924DE}"/>
+    <hyperlink ref="C106" r:id="rId93" xr:uid="{16AB466E-682E-47B8-A4E2-382FD289A028}"/>
+    <hyperlink ref="C107" r:id="rId94" xr:uid="{6DCCCDA1-E5B8-4573-BC96-2C385646B65F}"/>
+    <hyperlink ref="C110" r:id="rId95" xr:uid="{5ED2B850-5619-4803-9E96-99424F17CB82}"/>
+    <hyperlink ref="C114" r:id="rId96" xr:uid="{F046FA23-A48D-4FEC-B2CE-9AD00AACEB66}"/>
+    <hyperlink ref="C118" r:id="rId97" xr:uid="{1F850D9E-5286-41BA-90F6-0FD05DFBBBE5}"/>
+    <hyperlink ref="E4" r:id="rId98" xr:uid="{811C4818-C847-4731-BB38-2D52F1834045}"/>
+    <hyperlink ref="E10" r:id="rId99" xr:uid="{94100DD3-02BF-4E61-A172-C4A9D09569F8}"/>
+    <hyperlink ref="E14" r:id="rId100" location="s0035" xr:uid="{13AE09A2-4522-46D1-AC75-5B95A8D15C9C}"/>
+    <hyperlink ref="E47" r:id="rId101" xr:uid="{5C414BC3-1364-419D-9DDD-1A6F60C0D845}"/>
+    <hyperlink ref="E60" r:id="rId102" xr:uid="{C5A0DFB4-1FB7-49B8-8FD3-9AC01312958D}"/>
+    <hyperlink ref="E94" r:id="rId103" xr:uid="{51CBF759-50E7-428F-81D5-CB1BF0D6F9DE}"/>
+    <hyperlink ref="E124" r:id="rId104" xr:uid="{DD230CEE-1804-40FB-BD78-0C67303DB967}"/>
+    <hyperlink ref="E131" r:id="rId105" location="f0020" xr:uid="{3778DDB7-E612-4F6A-A3B0-B453CF8B64A9}"/>
+    <hyperlink ref="E87" r:id="rId106" xr:uid="{88E00939-FB4B-46C7-8C26-9BF914C2DEFC}"/>
+    <hyperlink ref="E120" r:id="rId107" xr:uid="{1BF75D9D-D348-4E2D-9C84-905D4A8F3B25}"/>
+    <hyperlink ref="E42" r:id="rId108" xr:uid="{731847B6-AFA8-4FD0-B2B9-DA4073CF6576}"/>
+    <hyperlink ref="E138" r:id="rId109" xr:uid="{A734FA6A-1E5E-4197-893E-26AEB8863486}"/>
+    <hyperlink ref="E134" r:id="rId110" xr:uid="{2DAAFB64-43EF-4609-9512-3EECAF83A0D8}"/>
+    <hyperlink ref="E13" r:id="rId111" location="s0035" xr:uid="{B0E30218-34ED-4F0F-8578-9A603C364391}"/>
+    <hyperlink ref="E139" r:id="rId112" xr:uid="{33D09351-6D20-4F3E-B2E7-73DE845CAB80}"/>
+    <hyperlink ref="E141" r:id="rId113" xr:uid="{BA5C5148-161B-4925-9347-1EBB2828D7A5}"/>
+    <hyperlink ref="E122" r:id="rId114" xr:uid="{686C1381-B3D9-4F4F-B355-F6C8BDA10898}"/>
+    <hyperlink ref="E144" r:id="rId115" xr:uid="{8A34E89F-B55C-44D1-9032-56436D05CE5D}"/>
+    <hyperlink ref="E24" r:id="rId116" xr:uid="{F267D5CF-D0FE-473C-A3F7-FECCC233A441}"/>
+    <hyperlink ref="E31" r:id="rId117" xr:uid="{442EB302-E477-4F77-B393-3E4D99A564E5}"/>
+    <hyperlink ref="E46" r:id="rId118" xr:uid="{D135E4D3-2F2E-469B-85FF-8BEC89A2618B}"/>
+    <hyperlink ref="E5" r:id="rId119" xr:uid="{12D8EB59-83CA-4597-928E-5FE6B23E156B}"/>
+    <hyperlink ref="E129" r:id="rId120" xr:uid="{81632F3A-005C-4176-BECE-2F3B9EEB6891}"/>
+    <hyperlink ref="E93" r:id="rId121" xr:uid="{37A04716-A03F-4D57-96D9-A5BFAD7D2359}"/>
+    <hyperlink ref="E127" r:id="rId122" xr:uid="{0E7FBF6C-CAA7-4FF2-A8EE-7F2D8A88BF96}"/>
+    <hyperlink ref="E135" r:id="rId123" xr:uid="{D55E6DD1-6984-4A50-A0AD-BA6FF596E41C}"/>
+    <hyperlink ref="E103" r:id="rId124" xr:uid="{2B877B96-8FD1-4F41-B88E-AD70830BE725}"/>
+    <hyperlink ref="E133" r:id="rId125" xr:uid="{7CB9413F-F297-47A4-B2F8-2E8BEC8F96E8}"/>
+    <hyperlink ref="E25" r:id="rId126" xr:uid="{FA27BDCB-DB0A-480B-876B-7B017E0E677B}"/>
+    <hyperlink ref="E20" r:id="rId127" xr:uid="{48520E64-60FA-43C7-9523-3F8A2187E6CC}"/>
+    <hyperlink ref="E22" r:id="rId128" xr:uid="{05E3211D-230E-48F4-BB1E-822C21AAAFED}"/>
+    <hyperlink ref="E59" r:id="rId129" xr:uid="{FD6A6FF4-BD3D-4A75-A3F7-C6081FFB6C91}"/>
+    <hyperlink ref="E78" r:id="rId130" xr:uid="{A79F7F03-9B5B-4489-B080-107B98530A6B}"/>
+    <hyperlink ref="E99" r:id="rId131" xr:uid="{F431B0F7-5D38-4E60-AD18-2B301C1F824A}"/>
+    <hyperlink ref="E100" r:id="rId132" xr:uid="{8D237475-1999-48E3-B25D-339AE9C8EDD4}"/>
+    <hyperlink ref="E105" r:id="rId133" xr:uid="{6CFEE99F-77B8-453F-B0EB-481B5544EB7E}"/>
+    <hyperlink ref="E119" r:id="rId134" xr:uid="{0095BCC3-FA71-4827-B8E0-87D678153928}"/>
+    <hyperlink ref="E28" r:id="rId135" xr:uid="{620BDACF-75EA-4500-BA77-23B953049278}"/>
+    <hyperlink ref="E101" r:id="rId136" xr:uid="{E4CE47AF-12EB-4DBE-9E99-0FABFC9402A8}"/>
+    <hyperlink ref="E123" r:id="rId137" xr:uid="{A59ECC74-526B-4136-A3D5-05BA9BB6787C}"/>
+    <hyperlink ref="E126" r:id="rId138" xr:uid="{D6FF6640-82FF-4A0D-A828-72ED67D3AD4F}"/>
+    <hyperlink ref="E142" r:id="rId139" xr:uid="{9B13D64B-97F0-4098-BAE2-F0343CD81A80}"/>
+    <hyperlink ref="E136" r:id="rId140" xr:uid="{BADE4669-D317-4460-B448-C8D94D35753B}"/>
+    <hyperlink ref="E130" r:id="rId141" xr:uid="{850A2301-83A8-46A6-86BC-61587D12CD21}"/>
+    <hyperlink ref="E125" r:id="rId142" xr:uid="{7E135D94-3307-4285-876D-E50B63D987DF}"/>
+    <hyperlink ref="E58" r:id="rId143" xr:uid="{1AED701A-018D-49C9-969C-0C378A17C522}"/>
+    <hyperlink ref="E63" r:id="rId144" xr:uid="{184F465E-B6F3-4207-8050-030FFF3C7183}"/>
+    <hyperlink ref="E33" r:id="rId145" xr:uid="{6543D113-650C-4476-8130-C0483837619C}"/>
+    <hyperlink ref="E34" r:id="rId146" xr:uid="{FF0B3ADF-CBF0-42B9-8D3E-864E6D620CF1}"/>
+    <hyperlink ref="E41" r:id="rId147" xr:uid="{3E97C6A8-683F-4E0F-B475-3D5C212C5AFB}"/>
+    <hyperlink ref="E35" r:id="rId148" xr:uid="{CCEC51F1-262A-4CCF-80C1-A2B666658C93}"/>
+    <hyperlink ref="E36" r:id="rId149" xr:uid="{C206D26F-C731-4AF1-BD04-B213908CD9B9}"/>
+    <hyperlink ref="E37" r:id="rId150" xr:uid="{14EDB458-A34B-4779-9965-F5FE1CCB50B4}"/>
+    <hyperlink ref="E38" r:id="rId151" xr:uid="{3E1D03BB-6005-4825-A023-802A774824DD}"/>
+    <hyperlink ref="E39" r:id="rId152" xr:uid="{D171B4DD-4752-4A1C-B749-476C3263BFA2}"/>
+    <hyperlink ref="E50" r:id="rId153" xr:uid="{C6824C04-CEDB-4179-8131-356484F7C66A}"/>
+    <hyperlink ref="E49" r:id="rId154" xr:uid="{F0A47980-178B-4307-BC06-208B0A0787C0}"/>
+    <hyperlink ref="E6" r:id="rId155" xr:uid="{006F9965-F9A0-4D18-8A5E-055D979E592B}"/>
+    <hyperlink ref="E7" r:id="rId156" xr:uid="{42036A72-05E5-4B54-A1E5-2DE4DEC53013}"/>
+    <hyperlink ref="E8" r:id="rId157" xr:uid="{30D4BCEA-77E7-4F67-9879-7D974DDCB30D}"/>
+    <hyperlink ref="E9" r:id="rId158" xr:uid="{27745033-13CE-45AE-B517-ECF515AB30D0}"/>
+    <hyperlink ref="E11" r:id="rId159" xr:uid="{652AB408-8BA1-4CFB-95EC-99AE53E42B68}"/>
+    <hyperlink ref="E15" r:id="rId160" xr:uid="{60B241F5-B00E-49A2-B401-FAD99BF0E300}"/>
+    <hyperlink ref="E16" r:id="rId161" xr:uid="{652270A6-F3A5-4CCF-ABA7-C14BC5C42423}"/>
+    <hyperlink ref="E17" r:id="rId162" xr:uid="{63180BA9-A5BF-48B3-9FB4-C4B440D39A56}"/>
+    <hyperlink ref="E18" r:id="rId163" xr:uid="{6F6B612D-7ED2-4FC1-8D0B-A4BB4951744D}"/>
+    <hyperlink ref="E19" r:id="rId164" xr:uid="{E69650D7-F915-46E1-8F1F-02B7FFB12F2E}"/>
+    <hyperlink ref="E21" r:id="rId165" xr:uid="{CA514BF8-8B41-4BFC-AC79-0B520CB3F2AC}"/>
+    <hyperlink ref="E43" r:id="rId166" xr:uid="{54FE9C2C-B8A0-4854-A022-1A7169CD0C72}"/>
+    <hyperlink ref="E51" r:id="rId167" xr:uid="{0C047F6E-8077-4EDF-9184-56251B4A40EC}"/>
+    <hyperlink ref="E52" r:id="rId168" xr:uid="{A883FFE8-5423-44FE-B5C8-56C449AB6627}"/>
+    <hyperlink ref="E55" r:id="rId169" xr:uid="{A14809D5-65CA-4A10-8330-439AF1AB07EB}"/>
+    <hyperlink ref="E56" r:id="rId170" xr:uid="{16F6BA4E-D132-404A-B8A5-6A4055D3B1DE}"/>
+    <hyperlink ref="E62" r:id="rId171" xr:uid="{ED6CF27F-6387-4DE6-BE4C-E850E5881B88}"/>
+    <hyperlink ref="E65" r:id="rId172" xr:uid="{E9B998E1-EC82-42B0-AACA-73FB4DD88CE9}"/>
+    <hyperlink ref="E72" r:id="rId173" xr:uid="{47645E3C-39E5-4CAC-8820-A7C6FD8B5579}"/>
+    <hyperlink ref="E73" r:id="rId174" xr:uid="{0625CF4F-DA2B-4EE7-A702-0219AD1C68CB}"/>
+    <hyperlink ref="E74" r:id="rId175" xr:uid="{0282C361-4DE5-48B1-9823-FCE619290498}"/>
+    <hyperlink ref="E75" r:id="rId176" xr:uid="{67DEF3F7-0CAA-4CD6-8D88-5F8DB78DE540}"/>
+    <hyperlink ref="E76" r:id="rId177" xr:uid="{D969C0A9-F9DD-4566-8223-41D811B4D5C6}"/>
+    <hyperlink ref="E77" r:id="rId178" xr:uid="{CA72B61B-2AF9-4500-84C6-0F0C62189095}"/>
+    <hyperlink ref="E81" r:id="rId179" xr:uid="{EC57EFF2-9F41-45C7-A332-FFA2687C3F75}"/>
+    <hyperlink ref="E82" r:id="rId180" xr:uid="{149A410F-01E9-4C9E-A3BF-8106E7830F57}"/>
+    <hyperlink ref="E83" r:id="rId181" xr:uid="{1AA34E58-053E-4462-B269-60B1C19E26FF}"/>
+    <hyperlink ref="E84" r:id="rId182" xr:uid="{BEF77FE6-2F82-47F6-B96C-ADAF84945125}"/>
+    <hyperlink ref="E85" r:id="rId183" xr:uid="{F2874A98-0A0B-45C2-8CD6-EA4A785A2370}"/>
+    <hyperlink ref="E89" r:id="rId184" xr:uid="{CA4C0D7C-9C19-4E48-A158-F4413BD6178C}"/>
+    <hyperlink ref="E91" r:id="rId185" xr:uid="{EEFF914F-ABA0-4E3C-9FD5-12FBECFDBB91}"/>
+    <hyperlink ref="E92" r:id="rId186" xr:uid="{88EE7216-4A06-465B-8FC6-606F50CBCFBC}"/>
+    <hyperlink ref="E95" r:id="rId187" xr:uid="{7BDEE9B8-5D7C-4202-B74C-6BE982C328AB}"/>
+    <hyperlink ref="E96" r:id="rId188" xr:uid="{77709C72-C9F9-499D-B133-6DF9E7E61890}"/>
+    <hyperlink ref="E97" r:id="rId189" xr:uid="{4F359565-B34E-4BD5-803D-7DC3D9732BAD}"/>
+    <hyperlink ref="E104" r:id="rId190" xr:uid="{A5574257-EDF9-4DC4-9A80-018F938B8B76}"/>
+    <hyperlink ref="E108" r:id="rId191" xr:uid="{E6837BC7-5BFC-4721-BAEC-5150ACC2E92A}"/>
+    <hyperlink ref="E109" r:id="rId192" xr:uid="{5AE70EB7-4DA2-4D5D-B00B-AE08DC919335}"/>
+    <hyperlink ref="E111" r:id="rId193" xr:uid="{C7A06CCF-1682-41F2-925C-4CCAC157C4E2}"/>
+    <hyperlink ref="E112" r:id="rId194" xr:uid="{2C04A538-B780-4A40-A836-B3954133A859}"/>
+    <hyperlink ref="E113" r:id="rId195" xr:uid="{533F3B58-531B-4E96-AF2B-08DB72D544CF}"/>
+    <hyperlink ref="E115" r:id="rId196" xr:uid="{62821B07-9EEB-41DA-A82A-CCDC6B6E1FB3}"/>
+    <hyperlink ref="E116" r:id="rId197" xr:uid="{B0802ADB-CF30-44C5-89E2-BCFA655BA70A}"/>
+    <hyperlink ref="E117" r:id="rId198" xr:uid="{9471BEB4-CC62-4A65-95D9-0E8F08554CFE}"/>
+    <hyperlink ref="E121" r:id="rId199" xr:uid="{349E9ACC-59EC-49C5-8729-16D1175BEF4F}"/>
+    <hyperlink ref="E57" r:id="rId200" xr:uid="{BB6956D7-23ED-4A46-A37D-A8372BE7A10E}"/>
+    <hyperlink ref="E2" r:id="rId201" xr:uid="{FA6C54D1-21A6-4366-A61A-B63E45510502}"/>
+    <hyperlink ref="E12" r:id="rId202" xr:uid="{1811DDC7-B1CB-48D6-97CC-8589C8A392B3}"/>
+    <hyperlink ref="E66" r:id="rId203" xr:uid="{C5DA3CF3-7B30-4A03-82DD-7F2E14081684}"/>
+    <hyperlink ref="E140" r:id="rId204" xr:uid="{7115DB7A-AE90-495D-9676-EA1BA0F179A0}"/>
+    <hyperlink ref="E90" r:id="rId205" xr:uid="{E875AA82-E9BD-43BA-B96A-443BE71A661D}"/>
+    <hyperlink ref="E128" r:id="rId206" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{1198A376-FAFB-4B63-8F31-3CC40DDC0188}"/>
+    <hyperlink ref="E88" r:id="rId207" xr:uid="{CDB629AC-7318-4A45-902E-8C95EF4661CF}"/>
+    <hyperlink ref="E27" r:id="rId208" xr:uid="{F20CB13F-7541-474A-BB7F-D8B745D301C0}"/>
+    <hyperlink ref="E137" r:id="rId209" xr:uid="{62676230-6266-4D08-B848-64E61BE4B592}"/>
+    <hyperlink ref="E80" r:id="rId210" display="https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3" xr:uid="{AE487E94-18DC-4254-BE84-4C41E95CF5BD}"/>
+    <hyperlink ref="E32" r:id="rId211" xr:uid="{3B2D46D8-B3FB-420A-B722-C4AE65399511}"/>
+    <hyperlink ref="E69" r:id="rId212" xr:uid="{CEDD056B-0AF1-476A-BD5E-3BDADF64D853}"/>
+    <hyperlink ref="E30" r:id="rId213" xr:uid="{5E225EF5-93E6-41EE-89D9-FFE8A5198461}"/>
+    <hyperlink ref="E29" r:id="rId214" xr:uid="{074596C3-DC36-46D9-B1FA-6177FB0CE294}"/>
+    <hyperlink ref="E26" r:id="rId215" xr:uid="{8839DCA9-B1C9-4B05-BAA3-2A9B25F26A93}"/>
+    <hyperlink ref="E102" r:id="rId216" xr:uid="{16B53E58-79E0-4B7C-AC2E-C71F2322D92F}"/>
+    <hyperlink ref="E68" r:id="rId217" xr:uid="{7E895DE5-2CE7-45C1-A136-57B4BCE29015}"/>
+    <hyperlink ref="E67" r:id="rId218" xr:uid="{47784ED5-2C28-44C3-81EB-31DA2532A95A}"/>
+    <hyperlink ref="E48" r:id="rId219" xr:uid="{D997BB59-BF3F-477F-A29B-A26EC0C6DB4C}"/>
+    <hyperlink ref="E106" r:id="rId220" xr:uid="{8B03E269-70CC-43E2-802D-196D1A76D2C6}"/>
+    <hyperlink ref="E107" r:id="rId221" xr:uid="{4CB1390B-88E8-414B-819B-3EBA1096C650}"/>
+    <hyperlink ref="E110" r:id="rId222" xr:uid="{7E0BEE99-7810-43FE-8B6E-F313CACD1280}"/>
+    <hyperlink ref="E114" r:id="rId223" xr:uid="{A941CDD9-0B08-4ACA-8885-324C2A700E2F}"/>
+    <hyperlink ref="E118" r:id="rId224" xr:uid="{4183CDB1-AB57-415B-91B7-AABB33124063}"/>
+    <hyperlink ref="E61" r:id="rId225" xr:uid="{BE8311D4-A8A6-4008-870A-9CEF9052ED5C}"/>
+    <hyperlink ref="C132" r:id="rId226" xr:uid="{8A2C5288-ADB4-463A-85BA-B1183BAF8DDF}"/>
+    <hyperlink ref="C55" r:id="rId227" xr:uid="{07F92C0D-DB82-4582-A72B-52659867C160}"/>
+    <hyperlink ref="C8" r:id="rId228" xr:uid="{A84DDA47-6ACC-464D-952D-0387101E0611}"/>
+    <hyperlink ref="C143" r:id="rId229" xr:uid="{AE033172-A711-4880-AB36-40FB9AE60B05}"/>
+    <hyperlink ref="C3" r:id="rId230" xr:uid="{87BD7AD7-F7D3-4FFD-A9E2-12853E86A7FE}"/>
+    <hyperlink ref="E3" r:id="rId231" xr:uid="{512DDB69-1C56-4690-B2D9-AC64B48E7A6E}"/>
+    <hyperlink ref="C54" r:id="rId232" xr:uid="{0F674644-7FE0-46D4-B1A3-3075C11E0658}"/>
+    <hyperlink ref="C64" r:id="rId233" xr:uid="{1EFCCF69-133B-446A-B214-3B92B837A2A4}"/>
+    <hyperlink ref="E64" r:id="rId234" xr:uid="{D09DEDB3-49E2-4C48-B494-81711DA43BF0}"/>
+    <hyperlink ref="C71" r:id="rId235" display="https://w3id.org/hmo" xr:uid="{E4AF1C6F-DF28-43F7-ACA9-70BE220B042B}"/>
+    <hyperlink ref="E71" r:id="rId236" xr:uid="{49B2000D-4C70-49FD-A5F3-84C8A5029347}"/>
+    <hyperlink ref="C133" r:id="rId237" xr:uid="{0D2D8DED-68FD-46CA-AE92-1461FF576E92}"/>
+    <hyperlink ref="C135" r:id="rId238" xr:uid="{290C515B-CDF1-463F-85EB-BCFC5378D1E4}"/>
+    <hyperlink ref="C134" r:id="rId239" xr:uid="{DFE53865-6A47-46EC-BB35-4A0B7009EA86}"/>
+    <hyperlink ref="C136" r:id="rId240" xr:uid="{54FC6350-1D41-40D1-85C1-5FEB82150346}"/>
+    <hyperlink ref="C137" r:id="rId241" xr:uid="{218ED3BE-F2B1-4A98-ADC4-F128684E3B28}"/>
+    <hyperlink ref="C138" r:id="rId242" xr:uid="{31E930C8-EAAF-4B34-8443-75427984FA75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId241"/>
-  <legacyDrawing r:id="rId242"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId243"/>
+  <legacyDrawing r:id="rId244"/>
   <tableParts count="1">
-    <tablePart r:id="rId243"/>
+    <tablePart r:id="rId245"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -12272,7 +12233,7 @@
           <x14:formula1>
             <xm:f>Domains!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H2 G53:H53 G4:H52 G55:H62 G64:H69 G71:H145</xm:sqref>
+          <xm:sqref>G2:H2 G4:H53 G55:H62 G64:H69 G71:H144</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12294,18 +12255,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>677</v>
+      <c r="A1" s="19" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -12330,7 +12291,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -12365,17 +12326,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -12385,7 +12346,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -12405,7 +12366,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -12420,12 +12381,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
